--- a/brillianquiz/WebContent/quiz/quiz-questions-template.xlsx
+++ b/brillianquiz/WebContent/quiz/quiz-questions-template.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="860" windowWidth="14400" windowHeight="15620"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="28800" windowHeight="15620"/>
   </bookViews>
   <sheets>
     <sheet name="Kopie von convertcsv-1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Kopie von convertcsv-1'!$A$1:$BC$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Kopie von convertcsv-1'!$A$1:$BC$398</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -5516,12 +5516,6 @@
     <t>60/200 = 0,3</t>
   </si>
   <si>
-    <t>(60/200)+(130/200)-(50/200) = 0.,</t>
-  </si>
-  <si>
-    <t>10/200 = 0,05</t>
-  </si>
-  <si>
     <t>Das Release Management ist für die Implementierung zusammenhängender Veränderungsmaßnahmen verantwortlich. Dabei handelt es sich entweder um einen</t>
   </si>
   <si>
@@ -7485,6 +7479,12 @@
   </si>
   <si>
     <t>beendet</t>
+  </si>
+  <si>
+    <t>50/130 = 0,38</t>
+  </si>
+  <si>
+    <t>(60/200)+(130/200)-(50/200) = 0,7</t>
   </si>
 </sst>
 </file>
@@ -7898,11 +7898,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet 1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet 1" filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:CC458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="BO413" sqref="BO413"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I399" sqref="I399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
@@ -7972,25 +7972,25 @@
         <v>1746</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>1883</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>1884</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>1885</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>1886</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>1887</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>1888</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>1889</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>1890</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>1891</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>23</v>
@@ -8032,25 +8032,25 @@
         <v>1749</v>
       </c>
       <c r="AM1" s="3" t="s">
+        <v>1890</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>1891</v>
+      </c>
+      <c r="AO1" s="3" t="s">
         <v>1892</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>1893</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>1894</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>1895</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>1896</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>1897</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>1898</v>
       </c>
       <c r="AT1" s="3" t="s">
         <v>19</v>
@@ -8083,7 +8083,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>829</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>829</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>829</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>829</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>829</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>829</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>829</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>829</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>829</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>829</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>829</v>
       </c>
@@ -8580,25 +8580,25 @@
         <v>1812</v>
       </c>
       <c r="E12" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="F12" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="H12" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="J12" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="L12" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="N12" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="P12" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="AA12">
         <v>4</v>
@@ -8616,22 +8616,22 @@
         <v>3</v>
       </c>
       <c r="AT12" t="s">
+        <v>2476</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>2477</v>
+      </c>
+      <c r="AV12" t="s">
         <v>2478</v>
       </c>
-      <c r="AU12" t="s">
+      <c r="AW12" t="s">
+        <v>2480</v>
+      </c>
+      <c r="AX12" t="s">
         <v>2479</v>
       </c>
-      <c r="AV12" t="s">
-        <v>2480</v>
-      </c>
-      <c r="AW12" t="s">
-        <v>2482</v>
-      </c>
-      <c r="AX12" t="s">
-        <v>2481</v>
-      </c>
-    </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>829</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>1812</v>
       </c>
       <c r="E13" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="F13" t="s">
         <v>835</v>
@@ -8667,7 +8667,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="14" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:81" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>829</v>
       </c>
@@ -8682,22 +8682,22 @@
         <v>1812</v>
       </c>
       <c r="E14" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="F14" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="G14"/>
       <c r="H14" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="I14"/>
       <c r="J14" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="K14"/>
       <c r="L14" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="M14"/>
       <c r="N14"/>
@@ -8742,10 +8742,10 @@
         <v>843</v>
       </c>
       <c r="AU14" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
       <c r="AV14" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
       <c r="AW14"/>
       <c r="AX14"/>
@@ -8781,7 +8781,7 @@
       <c r="CB14"/>
       <c r="CC14"/>
     </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>829</v>
       </c>
@@ -8796,19 +8796,19 @@
         <v>1812</v>
       </c>
       <c r="E15" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="F15" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="H15" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="J15" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="L15" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="AA15">
         <v>3</v>
@@ -8820,16 +8820,16 @@
         <v>1</v>
       </c>
       <c r="AT15" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="AU15" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="AV15" t="s">
-        <v>2189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>829</v>
       </c>
@@ -8844,19 +8844,19 @@
         <v>1812</v>
       </c>
       <c r="E16" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="F16" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="H16" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="J16" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="M16" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="AA16">
         <v>2</v>
@@ -8868,16 +8868,16 @@
         <v>1</v>
       </c>
       <c r="AT16" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="AU16" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="AV16" t="s">
-        <v>2183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:81" x14ac:dyDescent="0.2">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>829</v>
       </c>
@@ -8892,37 +8892,37 @@
         <v>1812</v>
       </c>
       <c r="E17" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="F17" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="G17" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="H17" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="I17" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="J17" t="s">
         <v>857</v>
       </c>
       <c r="K17" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="L17" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="M17" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="N17" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="O17" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="Z17">
         <v>7</v>
@@ -8958,34 +8958,34 @@
         <v>737</v>
       </c>
       <c r="AU17" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="AV17" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="AW17" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="AX17" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="AY17" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="AZ17" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="BA17" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="BB17" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="BC17" t="s">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:81" x14ac:dyDescent="0.2">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1572</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1572</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="20" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1572</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1572</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1572</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="23" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1572</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1572</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="25" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:81" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1572</v>
       </c>
@@ -9546,7 +9546,7 @@
       <c r="CB25"/>
       <c r="CC25"/>
     </row>
-    <row r="26" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1572</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="27" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1572</v>
       </c>
@@ -9624,28 +9624,28 @@
         <v>1812</v>
       </c>
       <c r="E27" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="F27" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="H27" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="J27" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="L27" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="N27" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="P27" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="R27" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="AA27">
         <v>6</v>
@@ -9666,7 +9666,7 @@
         <v>3</v>
       </c>
       <c r="AT27" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="AU27" t="s">
         <v>603</v>
@@ -9675,16 +9675,16 @@
         <v>600</v>
       </c>
       <c r="AW27" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="AX27" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="AY27" t="s">
-        <v>2443</v>
-      </c>
-    </row>
-    <row r="28" spans="1:81" x14ac:dyDescent="0.2">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="28" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1572</v>
       </c>
@@ -9699,28 +9699,28 @@
         <v>1812</v>
       </c>
       <c r="E28" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="F28" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="H28" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="J28" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="L28" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="N28" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
       <c r="P28" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
       <c r="R28" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="AA28">
         <v>3</v>
@@ -9741,25 +9741,25 @@
         <v>4</v>
       </c>
       <c r="AT28" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
       <c r="AU28" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="AV28" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="AW28" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="AX28" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
       <c r="AY28" t="s">
-        <v>2431</v>
-      </c>
-    </row>
-    <row r="29" spans="1:81" x14ac:dyDescent="0.2">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="29" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1572</v>
       </c>
@@ -9774,22 +9774,22 @@
         <v>1812</v>
       </c>
       <c r="E29" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="F29" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="H29" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="J29" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
       <c r="L29" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="N29" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="AA29">
         <v>3</v>
@@ -9804,19 +9804,19 @@
         <v>4</v>
       </c>
       <c r="AT29" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="AU29" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
       <c r="AV29" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="AW29" t="s">
-        <v>2423</v>
-      </c>
-    </row>
-    <row r="30" spans="1:81" x14ac:dyDescent="0.2">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1572</v>
       </c>
@@ -9831,22 +9831,22 @@
         <v>1812</v>
       </c>
       <c r="E30" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="F30" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="H30" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
       <c r="J30" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="L30" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="N30" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="AA30">
         <v>2</v>
@@ -9861,19 +9861,19 @@
         <v>3</v>
       </c>
       <c r="AT30" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="AU30" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="AV30" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="AW30" t="s">
-        <v>2402</v>
-      </c>
-    </row>
-    <row r="31" spans="1:81" x14ac:dyDescent="0.2">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1572</v>
       </c>
@@ -9888,37 +9888,37 @@
         <v>1812</v>
       </c>
       <c r="E31" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="F31" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="G31" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="H31" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="I31" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="J31" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="K31" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
       <c r="L31" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="M31" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="N31" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="O31" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
       <c r="Z31">
         <v>9</v>
@@ -9951,34 +9951,34 @@
         <v>600</v>
       </c>
       <c r="AU31" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="AV31" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="AW31" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="AX31" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="AY31" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="AZ31" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="BA31" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="BB31" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="BC31" t="s">
-        <v>2396</v>
-      </c>
-    </row>
-    <row r="32" spans="1:81" x14ac:dyDescent="0.2">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="32" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1806</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="33" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1806</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="34" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1806</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:81" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1806</v>
       </c>
@@ -10322,7 +10322,7 @@
       <c r="CB35"/>
       <c r="CC35"/>
     </row>
-    <row r="36" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1806</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1806</v>
       </c>
@@ -10406,7 +10406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1806</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1806</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:81" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1660</v>
       </c>
@@ -10610,7 +10610,7 @@
       <c r="CB40"/>
       <c r="CC40"/>
     </row>
-    <row r="41" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1660</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1660</v>
       </c>
@@ -10670,7 +10670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1660</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1660</v>
       </c>
@@ -10730,7 +10730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1640</v>
       </c>
@@ -10760,7 +10760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1640</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1640</v>
       </c>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1640</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1640</v>
       </c>
@@ -10880,7 +10880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1640</v>
       </c>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1640</v>
       </c>
@@ -10940,7 +10940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1640</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1640</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1640</v>
       </c>
@@ -11030,7 +11030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:81" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1640</v>
       </c>
@@ -11132,7 +11132,7 @@
       <c r="CB55"/>
       <c r="CC55"/>
     </row>
-    <row r="56" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1640</v>
       </c>
@@ -11162,7 +11162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:81" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1640</v>
       </c>
@@ -11264,7 +11264,7 @@
       <c r="CB57"/>
       <c r="CC57"/>
     </row>
-    <row r="58" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1640</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1640</v>
       </c>
@@ -11324,7 +11324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1574</v>
       </c>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1574</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="62" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1574</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="63" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1574</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1574</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1574</v>
       </c>
@@ -11657,7 +11657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:81" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1574</v>
       </c>
@@ -11781,7 +11781,7 @@
       <c r="CB66"/>
       <c r="CC66"/>
     </row>
-    <row r="67" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1574</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="68" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:81" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1574</v>
       </c>
@@ -11954,7 +11954,7 @@
       <c r="CB68"/>
       <c r="CC68"/>
     </row>
-    <row r="69" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1574</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="70" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1574</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="71" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1574</v>
       </c>
@@ -12119,7 +12119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1574</v>
       </c>
@@ -12182,7 +12182,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="73" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1574</v>
       </c>
@@ -12200,19 +12200,19 @@
         <v>426</v>
       </c>
       <c r="F73" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="H73" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="J73" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="L73" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="N73" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="AA73">
         <v>2</v>
@@ -12230,7 +12230,7 @@
         <v>802</v>
       </c>
       <c r="AU73" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="AV73" t="s">
         <v>826</v>
@@ -12239,7 +12239,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="74" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1574</v>
       </c>
@@ -12257,34 +12257,34 @@
         <v>235</v>
       </c>
       <c r="F74" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="G74" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="H74" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="I74" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="J74" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="K74" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="L74" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="M74" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="N74" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="O74" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="Z74">
         <v>10</v>
@@ -12317,7 +12317,7 @@
         <v>7</v>
       </c>
       <c r="AT74" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="AU74" t="s">
         <v>788</v>
@@ -12335,19 +12335,19 @@
         <v>826</v>
       </c>
       <c r="AZ74" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="BA74" t="s">
         <v>749</v>
       </c>
       <c r="BB74" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="BC74" t="s">
-        <v>2323</v>
-      </c>
-    </row>
-    <row r="75" spans="1:81" x14ac:dyDescent="0.2">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="75" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1808</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="76" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1808</v>
       </c>
@@ -12461,7 +12461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1808</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1808</v>
       </c>
@@ -12539,7 +12539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1808</v>
       </c>
@@ -12569,7 +12569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1808</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1808</v>
       </c>
@@ -12629,7 +12629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1808</v>
       </c>
@@ -12659,7 +12659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1807</v>
       </c>
@@ -12746,7 +12746,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="84" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1807</v>
       </c>
@@ -12821,7 +12821,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="85" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1807</v>
       </c>
@@ -12869,7 +12869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1807</v>
       </c>
@@ -12917,7 +12917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1807</v>
       </c>
@@ -12947,7 +12947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1807</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1807</v>
       </c>
@@ -13007,7 +13007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1807</v>
       </c>
@@ -13037,7 +13037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1807</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1805</v>
       </c>
@@ -13142,7 +13142,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="93" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1805</v>
       </c>
@@ -13190,7 +13190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1805</v>
       </c>
@@ -13238,7 +13238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1805</v>
       </c>
@@ -13286,7 +13286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:48" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1805</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1805</v>
       </c>
@@ -13364,7 +13364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1805</v>
       </c>
@@ -13394,7 +13394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1805</v>
       </c>
@@ -13424,7 +13424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:81" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1805</v>
       </c>
@@ -13526,7 +13526,7 @@
       <c r="CB100"/>
       <c r="CC100"/>
     </row>
-    <row r="101" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1805</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1575</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="103" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1575</v>
       </c>
@@ -13697,7 +13697,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="104" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1575</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="105" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1575</v>
       </c>
@@ -13811,7 +13811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1575</v>
       </c>
@@ -13847,7 +13847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1575</v>
       </c>
@@ -13883,7 +13883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1575</v>
       </c>
@@ -13913,7 +13913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1575</v>
       </c>
@@ -13979,7 +13979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1575</v>
       </c>
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1575</v>
       </c>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1575</v>
       </c>
@@ -14087,7 +14087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1575</v>
       </c>
@@ -14102,22 +14102,22 @@
         <v>1812</v>
       </c>
       <c r="E113" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="F113" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="H113" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="J113" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="L113" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="N113" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="AA113">
         <v>4</v>
@@ -14132,19 +14132,19 @@
         <v>2</v>
       </c>
       <c r="AT113" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="AU113" t="s">
         <v>1485</v>
       </c>
       <c r="AV113" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="AW113" t="s">
-        <v>1937</v>
-      </c>
-    </row>
-    <row r="114" spans="1:55" x14ac:dyDescent="0.2">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="114" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1575</v>
       </c>
@@ -14159,19 +14159,19 @@
         <v>1812</v>
       </c>
       <c r="E114" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="F114" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="H114" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="J114" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="L114" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="AA114">
         <v>3</v>
@@ -14183,16 +14183,16 @@
         <v>2</v>
       </c>
       <c r="AT114" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="AU114" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="AV114" t="s">
-        <v>1929</v>
-      </c>
-    </row>
-    <row r="115" spans="1:55" x14ac:dyDescent="0.2">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="115" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1575</v>
       </c>
@@ -14207,22 +14207,22 @@
         <v>1812</v>
       </c>
       <c r="E115" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="F115" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="H115" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="J115" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="L115" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="N115" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="AA115">
         <v>5</v>
@@ -14240,22 +14240,22 @@
         <v>2</v>
       </c>
       <c r="AT115" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="AU115" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="AV115" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="AW115" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="AX115" t="s">
-        <v>1918</v>
-      </c>
-    </row>
-    <row r="116" spans="1:55" x14ac:dyDescent="0.2">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="116" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1575</v>
       </c>
@@ -14273,34 +14273,34 @@
         <v>103</v>
       </c>
       <c r="F116" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="G116" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="H116" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="I116" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="J116" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="K116" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="L116" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="M116" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="N116" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="O116" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="Z116">
         <v>3</v>
@@ -14333,37 +14333,37 @@
         <v>4</v>
       </c>
       <c r="AT116" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="AU116" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="AV116" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="AW116" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="AX116" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="AY116" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="AZ116" t="s">
         <v>329</v>
       </c>
       <c r="BA116" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="BB116" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="BC116" t="s">
-        <v>1899</v>
-      </c>
-    </row>
-    <row r="117" spans="1:55" x14ac:dyDescent="0.2">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="117" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>219</v>
       </c>
@@ -14411,7 +14411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>219</v>
       </c>
@@ -14471,7 +14471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>219</v>
       </c>
@@ -14516,7 +14516,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="120" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>219</v>
       </c>
@@ -14588,7 +14588,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="121" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>219</v>
       </c>
@@ -14648,7 +14648,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="122" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>219</v>
       </c>
@@ -14708,7 +14708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>219</v>
       </c>
@@ -14762,7 +14762,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="124" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>219</v>
       </c>
@@ -14816,7 +14816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>219</v>
       </c>
@@ -14861,7 +14861,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="126" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>219</v>
       </c>
@@ -14903,7 +14903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>219</v>
       </c>
@@ -14933,7 +14933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>219</v>
       </c>
@@ -14975,7 +14975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>219</v>
       </c>
@@ -15029,7 +15029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>219</v>
       </c>
@@ -15071,7 +15071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>219</v>
       </c>
@@ -15179,7 +15179,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="132" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>939</v>
       </c>
@@ -15209,7 +15209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>939</v>
       </c>
@@ -15266,7 +15266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>939</v>
       </c>
@@ -15296,7 +15296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>939</v>
       </c>
@@ -15326,7 +15326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>939</v>
       </c>
@@ -15356,7 +15356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>939</v>
       </c>
@@ -15386,7 +15386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>939</v>
       </c>
@@ -15428,7 +15428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>939</v>
       </c>
@@ -15464,7 +15464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>939</v>
       </c>
@@ -15530,7 +15530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>939</v>
       </c>
@@ -15569,7 +15569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>939</v>
       </c>
@@ -15629,7 +15629,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="143" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>939</v>
       </c>
@@ -15659,7 +15659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:81" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:81" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>939</v>
       </c>
@@ -15761,7 +15761,7 @@
       <c r="CB144"/>
       <c r="CC144"/>
     </row>
-    <row r="145" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>939</v>
       </c>
@@ -15791,7 +15791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>939</v>
       </c>
@@ -15821,7 +15821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>939</v>
       </c>
@@ -15851,7 +15851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>939</v>
       </c>
@@ -15869,22 +15869,22 @@
         <v>989</v>
       </c>
       <c r="F148" t="s">
+        <v>1868</v>
+      </c>
+      <c r="G148" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H148" t="s">
         <v>1870</v>
       </c>
-      <c r="G148" t="s">
+      <c r="I148" t="s">
         <v>1871</v>
       </c>
-      <c r="H148" t="s">
+      <c r="J148" t="s">
         <v>1872</v>
       </c>
-      <c r="I148" t="s">
+      <c r="K148" t="s">
         <v>1873</v>
-      </c>
-      <c r="J148" t="s">
-        <v>1874</v>
-      </c>
-      <c r="K148" t="s">
-        <v>1875</v>
       </c>
       <c r="Z148">
         <v>1</v>
@@ -15902,7 +15902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>939</v>
       </c>
@@ -15938,7 +15938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>939</v>
       </c>
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:81" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:81" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>939</v>
       </c>
@@ -16087,7 +16087,7 @@
       <c r="CB151"/>
       <c r="CC151"/>
     </row>
-    <row r="152" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>939</v>
       </c>
@@ -16117,7 +16117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>939</v>
       </c>
@@ -16159,7 +16159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>939</v>
       </c>
@@ -16213,7 +16213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>939</v>
       </c>
@@ -16243,7 +16243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>939</v>
       </c>
@@ -16273,7 +16273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>939</v>
       </c>
@@ -16303,7 +16303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>939</v>
       </c>
@@ -16333,7 +16333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>939</v>
       </c>
@@ -16348,67 +16348,67 @@
         <v>1812</v>
       </c>
       <c r="E159" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="F159" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="G159" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="H159" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="I159" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="J159" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="K159" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="L159" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="M159" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="N159" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="O159" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="P159" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="Q159" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="R159" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="S159" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="T159" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="U159" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="V159" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="W159" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="X159" t="s">
-        <v>1963</v>
+        <v>1961</v>
       </c>
       <c r="Y159" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="Z159">
         <v>3</v>
@@ -16471,37 +16471,37 @@
         <v>11</v>
       </c>
       <c r="AT159" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="AU159" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="AV159" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="AW159" t="s">
-        <v>1958</v>
+        <v>1956</v>
       </c>
       <c r="AX159" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="AY159" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="AZ159" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="BA159" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="BB159" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="BC159" t="s">
-        <v>1952</v>
-      </c>
-    </row>
-    <row r="160" spans="1:81" x14ac:dyDescent="0.2">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="160" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1290</v>
       </c>
@@ -16573,7 +16573,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="161" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1290</v>
       </c>
@@ -16657,7 +16657,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="162" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1290</v>
       </c>
@@ -16741,7 +16741,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="163" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1290</v>
       </c>
@@ -16783,7 +16783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1290</v>
       </c>
@@ -16825,7 +16825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>1290</v>
       </c>
@@ -16840,22 +16840,22 @@
         <v>1812</v>
       </c>
       <c r="E165" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="F165" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="H165" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="J165" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="L165" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="N165" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="AA165">
         <v>4</v>
@@ -16870,19 +16870,19 @@
         <v>3</v>
       </c>
       <c r="AT165" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="AU165" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="AV165" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="AW165" t="s">
-        <v>2071</v>
-      </c>
-    </row>
-    <row r="166" spans="1:55" x14ac:dyDescent="0.2">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="166" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>1290</v>
       </c>
@@ -16897,22 +16897,22 @@
         <v>1812</v>
       </c>
       <c r="E166" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="F166" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="H166" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="J166" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="L166" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="N166" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="AA166">
         <v>4</v>
@@ -16927,19 +16927,19 @@
         <v>2</v>
       </c>
       <c r="AT166" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="AU166" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="AV166" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="AW166" t="s">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="167" spans="1:55" x14ac:dyDescent="0.2">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="167" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1290</v>
       </c>
@@ -16954,22 +16954,22 @@
         <v>1812</v>
       </c>
       <c r="E167" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="F167" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="H167" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="J167" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="L167" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="N167" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="AA167">
         <v>3</v>
@@ -16984,19 +16984,19 @@
         <v>4</v>
       </c>
       <c r="AT167" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="AU167" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="AV167" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="AW167" t="s">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="168" spans="1:55" x14ac:dyDescent="0.2">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="168" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1290</v>
       </c>
@@ -17011,19 +17011,19 @@
         <v>1812</v>
       </c>
       <c r="E168" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="F168" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="H168" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="J168" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="L168" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="AA168">
         <v>1</v>
@@ -17035,16 +17035,16 @@
         <v>2</v>
       </c>
       <c r="AT168" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="AU168" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="AV168" t="s">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="169" spans="1:55" x14ac:dyDescent="0.2">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="169" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1290</v>
       </c>
@@ -17059,22 +17059,22 @@
         <v>1812</v>
       </c>
       <c r="E169" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="F169" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="H169" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="J169" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="L169" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="N169" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="AA169">
         <v>3</v>
@@ -17089,19 +17089,19 @@
         <v>2</v>
       </c>
       <c r="AT169" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="AU169" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="AV169" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="AW169" t="s">
-        <v>2035</v>
-      </c>
-    </row>
-    <row r="170" spans="1:55" x14ac:dyDescent="0.2">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="170" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1290</v>
       </c>
@@ -17116,22 +17116,22 @@
         <v>1812</v>
       </c>
       <c r="E170" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="F170" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="H170" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="J170" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="L170" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="N170" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="AA170">
         <v>3</v>
@@ -17146,19 +17146,19 @@
         <v>1</v>
       </c>
       <c r="AT170" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="AU170" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="AV170" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="AW170" t="s">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="171" spans="1:55" x14ac:dyDescent="0.2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="171" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1290</v>
       </c>
@@ -17173,22 +17173,22 @@
         <v>1812</v>
       </c>
       <c r="E171" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="F171" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="H171" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="J171" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="L171" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="N171" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="AA171">
         <v>3</v>
@@ -17203,19 +17203,19 @@
         <v>2</v>
       </c>
       <c r="AT171" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="AU171" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="AV171" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="AW171" t="s">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="172" spans="1:55" x14ac:dyDescent="0.2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="172" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1290</v>
       </c>
@@ -17230,22 +17230,22 @@
         <v>1812</v>
       </c>
       <c r="E172" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="F172" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="H172" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="J172" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="L172" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="N172" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="AA172">
         <v>3</v>
@@ -17260,19 +17260,19 @@
         <v>1</v>
       </c>
       <c r="AT172" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="AU172" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="AV172" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="AW172" t="s">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="173" spans="1:55" x14ac:dyDescent="0.2">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="173" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1290</v>
       </c>
@@ -17287,22 +17287,22 @@
         <v>1812</v>
       </c>
       <c r="E173" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="F173" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="H173" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="J173" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="L173" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="N173" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="AA173">
         <v>2</v>
@@ -17317,19 +17317,19 @@
         <v>4</v>
       </c>
       <c r="AT173" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="AU173" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="AV173" t="s">
         <v>1290</v>
       </c>
       <c r="AW173" t="s">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="174" spans="1:55" x14ac:dyDescent="0.2">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="174" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1290</v>
       </c>
@@ -17344,37 +17344,37 @@
         <v>1812</v>
       </c>
       <c r="E174" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="F174" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G174" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="H174" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="I174" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="J174" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="K174" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="L174" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="M174" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="N174" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="O174" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="Z174">
         <v>3</v>
@@ -17407,16 +17407,16 @@
         <v>8</v>
       </c>
       <c r="AT174" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="AU174" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="AV174" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="AW174" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="AX174" t="s">
         <v>1305</v>
@@ -17431,13 +17431,13 @@
         <v>1303</v>
       </c>
       <c r="BB174" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="BC174" t="s">
-        <v>1981</v>
-      </c>
-    </row>
-    <row r="175" spans="1:55" x14ac:dyDescent="0.2">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="175" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1571</v>
       </c>
@@ -17491,7 +17491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>1571</v>
       </c>
@@ -17521,7 +17521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1571</v>
       </c>
@@ -17578,7 +17578,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="178" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1571</v>
       </c>
@@ -17620,7 +17620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>1571</v>
       </c>
@@ -17650,7 +17650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>1571</v>
       </c>
@@ -17680,7 +17680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>1571</v>
       </c>
@@ -17710,7 +17710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1571</v>
       </c>
@@ -17740,7 +17740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>1571</v>
       </c>
@@ -17806,7 +17806,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="184" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>1571</v>
       </c>
@@ -17854,7 +17854,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="185" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>1571</v>
       </c>
@@ -17896,7 +17896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>1571</v>
       </c>
@@ -17926,7 +17926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>1571</v>
       </c>
@@ -17968,7 +17968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>1571</v>
       </c>
@@ -17998,7 +17998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1571</v>
       </c>
@@ -18106,7 +18106,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="190" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>1299</v>
       </c>
@@ -18169,7 +18169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>1299</v>
       </c>
@@ -18202,7 +18202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1299</v>
       </c>
@@ -18244,7 +18244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>1299</v>
       </c>
@@ -18295,7 +18295,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="194" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1299</v>
       </c>
@@ -18337,7 +18337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1299</v>
       </c>
@@ -18379,7 +18379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>1299</v>
       </c>
@@ -18409,7 +18409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>1299</v>
       </c>
@@ -18451,7 +18451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1299</v>
       </c>
@@ -18493,7 +18493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1299</v>
       </c>
@@ -18523,7 +18523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1299</v>
       </c>
@@ -18553,7 +18553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1299</v>
       </c>
@@ -18595,7 +18595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1299</v>
       </c>
@@ -18667,7 +18667,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="203" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>1299</v>
       </c>
@@ -18682,25 +18682,25 @@
         <v>1812</v>
       </c>
       <c r="E203" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
       <c r="F203" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="H203" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="J203" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="L203" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="N203" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="P203" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="AA203">
         <v>4</v>
@@ -18721,7 +18721,7 @@
         <v>566</v>
       </c>
       <c r="AU203" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="AV203" t="s">
         <v>658</v>
@@ -18730,10 +18730,10 @@
         <v>565</v>
       </c>
       <c r="AX203" t="s">
-        <v>2471</v>
-      </c>
-    </row>
-    <row r="204" spans="1:55" x14ac:dyDescent="0.2">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="204" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1299</v>
       </c>
@@ -18748,37 +18748,37 @@
         <v>1812</v>
       </c>
       <c r="E204" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="F204" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
       <c r="G204" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="H204" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="I204" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="J204" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="K204" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="L204" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
       <c r="M204" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="N204" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="O204" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="Z204">
         <v>3</v>
@@ -18814,10 +18814,10 @@
         <v>564</v>
       </c>
       <c r="AU204" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="AV204" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="AW204" t="s">
         <v>560</v>
@@ -18829,19 +18829,19 @@
         <v>565</v>
       </c>
       <c r="AZ204" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="BA204" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="BB204" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="BC204" t="s">
-        <v>2455</v>
-      </c>
-    </row>
-    <row r="205" spans="1:55" x14ac:dyDescent="0.2">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="205" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>1576</v>
       </c>
@@ -18883,7 +18883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>1576</v>
       </c>
@@ -18919,7 +18919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>1576</v>
       </c>
@@ -18997,7 +18997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>1576</v>
       </c>
@@ -19039,7 +19039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>1576</v>
       </c>
@@ -19081,7 +19081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>1576</v>
       </c>
@@ -19117,7 +19117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>1576</v>
       </c>
@@ -19153,7 +19153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>1576</v>
       </c>
@@ -19219,7 +19219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>1576</v>
       </c>
@@ -19285,7 +19285,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="214" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>1576</v>
       </c>
@@ -19339,7 +19339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>1576</v>
       </c>
@@ -19381,7 +19381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>1576</v>
       </c>
@@ -19417,7 +19417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>1576</v>
       </c>
@@ -19432,19 +19432,19 @@
         <v>1812</v>
       </c>
       <c r="E217" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="F217" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="H217" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="J217" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="M217" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="AA217">
         <v>3</v>
@@ -19456,16 +19456,16 @@
         <v>2</v>
       </c>
       <c r="AT217" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="AU217" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="AV217" t="s">
-        <v>2103</v>
-      </c>
-    </row>
-    <row r="218" spans="1:81" x14ac:dyDescent="0.2">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="218" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>1576</v>
       </c>
@@ -19480,16 +19480,16 @@
         <v>1812</v>
       </c>
       <c r="E218" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="F218" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="H218" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="J218" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="AA218">
         <v>2</v>
@@ -19498,13 +19498,13 @@
         <v>1</v>
       </c>
       <c r="AT218" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="AU218" t="s">
-        <v>2097</v>
-      </c>
-    </row>
-    <row r="219" spans="1:81" x14ac:dyDescent="0.2">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="219" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1576</v>
       </c>
@@ -19522,34 +19522,34 @@
         <v>103</v>
       </c>
       <c r="F219" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="G219" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="H219" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="I219" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="J219" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="K219" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="L219" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="M219" t="s">
         <v>240</v>
       </c>
       <c r="N219" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="O219" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="Z219">
         <v>3</v>
@@ -19582,37 +19582,37 @@
         <v>2</v>
       </c>
       <c r="AT219" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="AU219" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="AV219" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="AW219" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="AX219" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="AY219" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="AZ219" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="BA219" t="s">
         <v>1061</v>
       </c>
       <c r="BB219" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="BC219" t="s">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="220" spans="1:81" x14ac:dyDescent="0.2">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="220" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>1809</v>
       </c>
@@ -19654,7 +19654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>1809</v>
       </c>
@@ -19696,7 +19696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:81" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>1809</v>
       </c>
@@ -19798,7 +19798,7 @@
       <c r="CB222"/>
       <c r="CC222"/>
     </row>
-    <row r="223" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>1809</v>
       </c>
@@ -19828,7 +19828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:81" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>1809</v>
       </c>
@@ -19938,7 +19938,7 @@
       <c r="CB224"/>
       <c r="CC224"/>
     </row>
-    <row r="225" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>1809</v>
       </c>
@@ -19980,7 +19980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>1809</v>
       </c>
@@ -20022,7 +20022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>1809</v>
       </c>
@@ -20070,7 +20070,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="228" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>1809</v>
       </c>
@@ -20160,7 +20160,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="229" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>1809</v>
       </c>
@@ -20205,7 +20205,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="230" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1809</v>
       </c>
@@ -20280,7 +20280,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="231" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>1809</v>
       </c>
@@ -20298,25 +20298,25 @@
         <v>721</v>
       </c>
       <c r="F231" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="G231" t="s">
         <v>425</v>
       </c>
       <c r="H231" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="I231" t="s">
         <v>425</v>
       </c>
       <c r="J231" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="K231" t="s">
         <v>425</v>
       </c>
       <c r="L231" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="AA231">
         <v>1</v>
@@ -20328,16 +20328,16 @@
         <v>2</v>
       </c>
       <c r="AT231" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AU231" t="s">
+        <v>1833</v>
+      </c>
+      <c r="AV231" t="s">
         <v>1834</v>
       </c>
-      <c r="AU231" t="s">
-        <v>1835</v>
-      </c>
-      <c r="AV231" t="s">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="232" spans="1:55" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>1809</v>
       </c>
@@ -20355,25 +20355,25 @@
         <v>727</v>
       </c>
       <c r="F232" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="G232" t="s">
         <v>425</v>
       </c>
       <c r="H232" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="I232" t="s">
         <v>425</v>
       </c>
       <c r="J232" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="K232" t="s">
         <v>425</v>
       </c>
       <c r="L232" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="AA232">
         <v>3</v>
@@ -20391,16 +20391,16 @@
         <v>2</v>
       </c>
       <c r="AT232" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AU232" t="s">
+        <v>1840</v>
+      </c>
+      <c r="AV232" t="s">
         <v>1841</v>
       </c>
-      <c r="AU232" t="s">
-        <v>1842</v>
-      </c>
-      <c r="AV232" t="s">
-        <v>1843</v>
-      </c>
-    </row>
-    <row r="233" spans="1:55" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>1809</v>
       </c>
@@ -20442,7 +20442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>1809</v>
       </c>
@@ -20460,31 +20460,31 @@
         <v>1168</v>
       </c>
       <c r="F234" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="G234" t="s">
         <v>720</v>
       </c>
       <c r="H234" t="s">
+        <v>1843</v>
+      </c>
+      <c r="I234" t="s">
+        <v>1844</v>
+      </c>
+      <c r="J234" t="s">
         <v>1845</v>
       </c>
-      <c r="I234" t="s">
+      <c r="K234" t="s">
         <v>1846</v>
       </c>
-      <c r="J234" t="s">
+      <c r="L234" t="s">
         <v>1847</v>
       </c>
-      <c r="K234" t="s">
+      <c r="M234" t="s">
         <v>1848</v>
       </c>
-      <c r="L234" t="s">
+      <c r="N234" t="s">
         <v>1849</v>
-      </c>
-      <c r="M234" t="s">
-        <v>1850</v>
-      </c>
-      <c r="N234" t="s">
-        <v>1851</v>
       </c>
       <c r="O234" t="s">
         <v>712</v>
@@ -20520,37 +20520,37 @@
         <v>7</v>
       </c>
       <c r="AT234" t="s">
+        <v>1850</v>
+      </c>
+      <c r="AU234" t="s">
+        <v>1851</v>
+      </c>
+      <c r="AV234" t="s">
         <v>1852</v>
       </c>
-      <c r="AU234" t="s">
+      <c r="AW234" t="s">
         <v>1853</v>
       </c>
-      <c r="AV234" t="s">
+      <c r="AX234" t="s">
         <v>1854</v>
       </c>
-      <c r="AW234" t="s">
+      <c r="AY234" t="s">
         <v>1855</v>
       </c>
-      <c r="AX234" t="s">
+      <c r="AZ234" t="s">
         <v>1856</v>
       </c>
-      <c r="AY234" t="s">
+      <c r="BA234" t="s">
         <v>1857</v>
       </c>
-      <c r="AZ234" t="s">
+      <c r="BB234" t="s">
         <v>1858</v>
       </c>
-      <c r="BA234" t="s">
+      <c r="BC234" t="s">
         <v>1859</v>
       </c>
-      <c r="BB234" t="s">
-        <v>1860</v>
-      </c>
-      <c r="BC234" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="235" spans="1:55" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1809</v>
       </c>
@@ -20568,16 +20568,16 @@
         <v>721</v>
       </c>
       <c r="F235" t="s">
+        <v>1828</v>
+      </c>
+      <c r="H235" t="s">
+        <v>1829</v>
+      </c>
+      <c r="J235" t="s">
         <v>1830</v>
       </c>
-      <c r="H235" t="s">
+      <c r="L235" t="s">
         <v>1831</v>
-      </c>
-      <c r="J235" t="s">
-        <v>1832</v>
-      </c>
-      <c r="L235" t="s">
-        <v>1833</v>
       </c>
       <c r="AA235">
         <v>1</v>
@@ -20589,16 +20589,16 @@
         <v>2</v>
       </c>
       <c r="AT235" t="s">
+        <v>1832</v>
+      </c>
+      <c r="AU235" t="s">
+        <v>1833</v>
+      </c>
+      <c r="AV235" t="s">
         <v>1834</v>
       </c>
-      <c r="AU235" t="s">
-        <v>1835</v>
-      </c>
-      <c r="AV235" t="s">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="236" spans="1:55" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>1809</v>
       </c>
@@ -20616,16 +20616,16 @@
         <v>727</v>
       </c>
       <c r="F236" t="s">
+        <v>1835</v>
+      </c>
+      <c r="H236" t="s">
+        <v>1836</v>
+      </c>
+      <c r="J236" t="s">
         <v>1837</v>
       </c>
-      <c r="H236" t="s">
+      <c r="L236" t="s">
         <v>1838</v>
-      </c>
-      <c r="J236" t="s">
-        <v>1839</v>
-      </c>
-      <c r="L236" t="s">
-        <v>1840</v>
       </c>
       <c r="AA236">
         <v>3</v>
@@ -20637,16 +20637,16 @@
         <v>2</v>
       </c>
       <c r="AT236" t="s">
+        <v>1839</v>
+      </c>
+      <c r="AU236" t="s">
+        <v>1840</v>
+      </c>
+      <c r="AV236" t="s">
         <v>1841</v>
       </c>
-      <c r="AU236" t="s">
-        <v>1842</v>
-      </c>
-      <c r="AV236" t="s">
-        <v>1843</v>
-      </c>
-    </row>
-    <row r="237" spans="1:55" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>1809</v>
       </c>
@@ -20661,34 +20661,34 @@
         <v>1812</v>
       </c>
       <c r="E237" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="F237" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="G237" t="s">
         <v>720</v>
       </c>
       <c r="H237" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="I237" t="s">
+        <v>1844</v>
+      </c>
+      <c r="J237" t="s">
+        <v>1845</v>
+      </c>
+      <c r="K237" t="s">
         <v>1846</v>
       </c>
-      <c r="J237" t="s">
-        <v>1847</v>
-      </c>
-      <c r="K237" t="s">
-        <v>1848</v>
-      </c>
       <c r="L237" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="M237" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="N237" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="O237" t="s">
         <v>712</v>
@@ -20724,37 +20724,37 @@
         <v>7</v>
       </c>
       <c r="AT237" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="AU237" t="s">
+        <v>1851</v>
+      </c>
+      <c r="AV237" t="s">
+        <v>1852</v>
+      </c>
+      <c r="AW237" t="s">
         <v>1853</v>
       </c>
-      <c r="AV237" t="s">
+      <c r="AX237" t="s">
         <v>1854</v>
       </c>
-      <c r="AW237" t="s">
+      <c r="AY237" t="s">
         <v>1855</v>
       </c>
-      <c r="AX237" t="s">
+      <c r="AZ237" t="s">
         <v>1856</v>
       </c>
-      <c r="AY237" t="s">
+      <c r="BA237" t="s">
         <v>1857</v>
       </c>
-      <c r="AZ237" t="s">
+      <c r="BB237" t="s">
         <v>1858</v>
       </c>
-      <c r="BA237" t="s">
-        <v>1859</v>
-      </c>
-      <c r="BB237" t="s">
-        <v>1860</v>
-      </c>
       <c r="BC237" t="s">
-        <v>2343</v>
-      </c>
-    </row>
-    <row r="238" spans="1:55" x14ac:dyDescent="0.2">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="238" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>1578</v>
       </c>
@@ -20808,7 +20808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>1578</v>
       </c>
@@ -20838,7 +20838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>1578</v>
       </c>
@@ -20928,7 +20928,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="241" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>1578</v>
       </c>
@@ -20982,7 +20982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>1578</v>
       </c>
@@ -21012,7 +21012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:81" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>1578</v>
       </c>
@@ -21114,7 +21114,7 @@
       <c r="CB243"/>
       <c r="CC243"/>
     </row>
-    <row r="244" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>1578</v>
       </c>
@@ -21144,7 +21144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>1578</v>
       </c>
@@ -21174,7 +21174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>1578</v>
       </c>
@@ -21252,7 +21252,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="247" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1578</v>
       </c>
@@ -21294,7 +21294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>1578</v>
       </c>
@@ -21324,7 +21324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>1578</v>
       </c>
@@ -21378,7 +21378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1578</v>
       </c>
@@ -21408,7 +21408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>1578</v>
       </c>
@@ -21423,16 +21423,16 @@
         <v>1812</v>
       </c>
       <c r="E251" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="F251" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="H251" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="J251" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="AA251">
         <v>1</v>
@@ -21447,7 +21447,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="252" spans="1:81" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>1578</v>
       </c>
@@ -21462,37 +21462,37 @@
         <v>1812</v>
       </c>
       <c r="E252" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="F252" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="G252" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="H252" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="I252" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="J252" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="K252" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="L252" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="M252" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="N252" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="O252" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="Z252">
         <v>5</v>
@@ -21525,13 +21525,13 @@
         <v>8</v>
       </c>
       <c r="AT252" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="AU252" t="s">
         <v>1376</v>
       </c>
       <c r="AV252" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="AW252" t="s">
         <v>739</v>
@@ -21543,16 +21543,16 @@
         <v>626</v>
       </c>
       <c r="AZ252" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="BA252" t="s">
         <v>621</v>
       </c>
       <c r="BB252" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="BC252" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="253" spans="1:81" x14ac:dyDescent="0.2">
@@ -21831,7 +21831,7 @@
         <v>1820</v>
       </c>
       <c r="F259">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="G259">
         <v>1256</v>
@@ -22065,13 +22065,13 @@
         <v>1823</v>
       </c>
       <c r="F264" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="G264" t="s">
-        <v>1828</v>
+        <v>2484</v>
       </c>
       <c r="H264" t="s">
-        <v>1827</v>
+        <v>2483</v>
       </c>
       <c r="Z264">
         <v>1</v>
@@ -22110,25 +22110,25 @@
         <v>1189</v>
       </c>
       <c r="F265" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="G265" t="s">
         <v>425</v>
       </c>
       <c r="H265" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="I265" t="s">
         <v>425</v>
       </c>
       <c r="J265" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="K265" t="s">
         <v>425</v>
       </c>
       <c r="L265" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="M265" t="s">
         <v>425</v>
@@ -22146,16 +22146,16 @@
         <v>2</v>
       </c>
       <c r="AT265" t="s">
+        <v>1864</v>
+      </c>
+      <c r="AU265" t="s">
+        <v>1865</v>
+      </c>
+      <c r="AV265" t="s">
         <v>1866</v>
       </c>
-      <c r="AU265" t="s">
+      <c r="AW265" t="s">
         <v>1867</v>
-      </c>
-      <c r="AV265" t="s">
-        <v>1868</v>
-      </c>
-      <c r="AW265" t="s">
-        <v>1869</v>
       </c>
     </row>
     <row r="266" spans="1:55" x14ac:dyDescent="0.2">
@@ -22302,7 +22302,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="268" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>1573</v>
       </c>
@@ -22344,7 +22344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>1573</v>
       </c>
@@ -22380,7 +22380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>1573</v>
       </c>
@@ -22422,7 +22422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>1573</v>
       </c>
@@ -22464,7 +22464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>1573</v>
       </c>
@@ -22524,7 +22524,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="273" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>1573</v>
       </c>
@@ -22572,7 +22572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>1573</v>
       </c>
@@ -22614,7 +22614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>1573</v>
       </c>
@@ -22650,7 +22650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>1573</v>
       </c>
@@ -22692,7 +22692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>1573</v>
       </c>
@@ -22707,19 +22707,19 @@
         <v>1812</v>
       </c>
       <c r="E277" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="F277" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="H277" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="J277" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="L277" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="AA277">
         <v>3</v>
@@ -22731,16 +22731,16 @@
         <v>2</v>
       </c>
       <c r="AT277" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="AU277" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="AV277" t="s">
-        <v>2389</v>
-      </c>
-    </row>
-    <row r="278" spans="1:55" x14ac:dyDescent="0.2">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="278" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>1573</v>
       </c>
@@ -22755,19 +22755,19 @@
         <v>1812</v>
       </c>
       <c r="E278" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="F278" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="H278" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="J278" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="L278" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="AA278">
         <v>2</v>
@@ -22779,16 +22779,16 @@
         <v>3</v>
       </c>
       <c r="AT278" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="AU278" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="AV278" t="s">
-        <v>2382</v>
-      </c>
-    </row>
-    <row r="279" spans="1:55" x14ac:dyDescent="0.2">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="279" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>1573</v>
       </c>
@@ -22803,19 +22803,19 @@
         <v>1812</v>
       </c>
       <c r="E279" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="F279" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="H279" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="J279" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="L279" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="AA279">
         <v>3</v>
@@ -22827,16 +22827,16 @@
         <v>2</v>
       </c>
       <c r="AT279" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="AU279" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="AV279" t="s">
-        <v>2374</v>
-      </c>
-    </row>
-    <row r="280" spans="1:55" x14ac:dyDescent="0.2">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="280" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1573</v>
       </c>
@@ -22851,19 +22851,19 @@
         <v>1812</v>
       </c>
       <c r="E280" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="F280" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="H280" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="J280" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="L280" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="AA280">
         <v>2</v>
@@ -22875,16 +22875,16 @@
         <v>1</v>
       </c>
       <c r="AT280" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="AU280" t="s">
         <v>1770</v>
       </c>
       <c r="AV280" t="s">
-        <v>2367</v>
-      </c>
-    </row>
-    <row r="281" spans="1:55" x14ac:dyDescent="0.2">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="281" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1573</v>
       </c>
@@ -22899,37 +22899,37 @@
         <v>1812</v>
       </c>
       <c r="E281" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="F281" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="G281" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="H281" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="I281" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="J281" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="K281" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="L281" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="M281" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="N281" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="O281" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="Z281">
         <v>3</v>
@@ -22962,25 +22962,25 @@
         <v>1</v>
       </c>
       <c r="AT281" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="AU281" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="AV281" t="s">
         <v>656</v>
       </c>
       <c r="AW281" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="AX281" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="AY281" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="AZ281" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="BA281" t="s">
         <v>667</v>
@@ -22989,10 +22989,10 @@
         <v>652</v>
       </c>
       <c r="BC281" t="s">
-        <v>2350</v>
-      </c>
-    </row>
-    <row r="282" spans="1:55" x14ac:dyDescent="0.2">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="282" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>415</v>
       </c>
@@ -23058,7 +23058,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="283" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>415</v>
       </c>
@@ -23127,7 +23127,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="284" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>415</v>
       </c>
@@ -23181,7 +23181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>415</v>
       </c>
@@ -23229,7 +23229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>415</v>
       </c>
@@ -23292,7 +23292,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="287" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>415</v>
       </c>
@@ -23340,7 +23340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>415</v>
       </c>
@@ -23403,7 +23403,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="289" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>415</v>
       </c>
@@ -23451,7 +23451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>415</v>
       </c>
@@ -23511,7 +23511,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="291" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>415</v>
       </c>
@@ -23547,7 +23547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>415</v>
       </c>
@@ -23592,7 +23592,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="293" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>415</v>
       </c>
@@ -23646,7 +23646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>415</v>
       </c>
@@ -23703,7 +23703,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="295" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>415</v>
       </c>
@@ -23739,7 +23739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>415</v>
       </c>
@@ -23847,7 +23847,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="297" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>1570</v>
       </c>
@@ -23889,7 +23889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>1570</v>
       </c>
@@ -23931,7 +23931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>1570</v>
       </c>
@@ -23991,7 +23991,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="300" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>1570</v>
       </c>
@@ -24033,7 +24033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>1570</v>
       </c>
@@ -24069,7 +24069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>1570</v>
       </c>
@@ -24105,7 +24105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>1570</v>
       </c>
@@ -24147,7 +24147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>1570</v>
       </c>
@@ -24195,7 +24195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>1570</v>
       </c>
@@ -24258,7 +24258,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="306" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>1570</v>
       </c>
@@ -24324,7 +24324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>1570</v>
       </c>
@@ -24378,7 +24378,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="308" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>1570</v>
       </c>
@@ -24414,7 +24414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>1570</v>
       </c>
@@ -24450,7 +24450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>1570</v>
       </c>
@@ -24492,7 +24492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>1570</v>
       </c>
@@ -24600,7 +24600,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="312" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1577</v>
       </c>
@@ -24636,7 +24636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>1577</v>
       </c>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>1577</v>
       </c>
@@ -24708,7 +24708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1577</v>
       </c>
@@ -24738,7 +24738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>1577</v>
       </c>
@@ -24807,7 +24807,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="317" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>1577</v>
       </c>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>1577</v>
       </c>
@@ -24879,7 +24879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>1577</v>
       </c>
@@ -24909,7 +24909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>1577</v>
       </c>
@@ -24954,7 +24954,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="321" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>1577</v>
       </c>
@@ -24984,7 +24984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>1577</v>
       </c>
@@ -25014,7 +25014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>1577</v>
       </c>
@@ -25029,22 +25029,22 @@
         <v>1812</v>
       </c>
       <c r="E323" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="F323" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="H323" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="J323" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="L323" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="N323" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="AA323">
         <v>3</v>
@@ -25059,19 +25059,19 @@
         <v>2</v>
       </c>
       <c r="AT323" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="AU323" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="AV323" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="AW323" t="s">
-        <v>2136</v>
-      </c>
-    </row>
-    <row r="324" spans="1:55" x14ac:dyDescent="0.2">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="324" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>1577</v>
       </c>
@@ -25086,16 +25086,16 @@
         <v>1812</v>
       </c>
       <c r="E324" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="F324" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="H324" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="K324" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="AA324">
         <v>3</v>
@@ -25107,16 +25107,16 @@
         <v>1</v>
       </c>
       <c r="AT324" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="AU324" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="AV324" t="s">
-        <v>2130</v>
-      </c>
-    </row>
-    <row r="325" spans="1:55" x14ac:dyDescent="0.2">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="325" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>1577</v>
       </c>
@@ -25131,37 +25131,37 @@
         <v>1812</v>
       </c>
       <c r="E325" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="F325" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="G325" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="H325" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="I325" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="J325" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="K325" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="L325" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="M325" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="N325" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="O325" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="Z325">
         <v>3</v>
@@ -25194,37 +25194,37 @@
         <v>4</v>
       </c>
       <c r="AT325" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="AU325" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="AV325" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="AW325" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="AX325" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="AY325" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="AZ325" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="BA325" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="BB325" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="BC325" t="s">
-        <v>2110</v>
-      </c>
-    </row>
-    <row r="326" spans="1:55" x14ac:dyDescent="0.2">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="326" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>1580</v>
       </c>
@@ -25272,7 +25272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>1580</v>
       </c>
@@ -25317,7 +25317,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="328" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>1580</v>
       </c>
@@ -25365,7 +25365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>1580</v>
       </c>
@@ -25401,7 +25401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>1580</v>
       </c>
@@ -25437,7 +25437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>1580</v>
       </c>
@@ -25491,7 +25491,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="332" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>1580</v>
       </c>
@@ -25539,7 +25539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>1580</v>
       </c>
@@ -25587,7 +25587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>1580</v>
       </c>
@@ -25635,7 +25635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>1580</v>
       </c>
@@ -25677,7 +25677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>1580</v>
       </c>
@@ -25692,16 +25692,16 @@
         <v>1812</v>
       </c>
       <c r="E336" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="F336" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="H336" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="J336" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="AA336">
         <v>2</v>
@@ -25710,13 +25710,13 @@
         <v>1</v>
       </c>
       <c r="AT336" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="AU336" t="s">
-        <v>2242</v>
-      </c>
-    </row>
-    <row r="337" spans="1:55" x14ac:dyDescent="0.2">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="337" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>1580</v>
       </c>
@@ -25731,22 +25731,22 @@
         <v>1812</v>
       </c>
       <c r="E337" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="F337" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="H337" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="J337" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="L337" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="N337" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="AA337">
         <v>3</v>
@@ -25761,19 +25761,19 @@
         <v>1</v>
       </c>
       <c r="AT337" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="AU337" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="AV337" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="AW337" t="s">
-        <v>2232</v>
-      </c>
-    </row>
-    <row r="338" spans="1:55" x14ac:dyDescent="0.2">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="338" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>1580</v>
       </c>
@@ -25788,22 +25788,22 @@
         <v>1812</v>
       </c>
       <c r="E338" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="F338" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="H338" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="J338" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="L338" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="N338" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="AA338">
         <v>3</v>
@@ -25818,19 +25818,19 @@
         <v>4</v>
       </c>
       <c r="AT338" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="AU338" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="AV338" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="AW338" t="s">
-        <v>2222</v>
-      </c>
-    </row>
-    <row r="339" spans="1:55" x14ac:dyDescent="0.2">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="339" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>1580</v>
       </c>
@@ -25845,37 +25845,37 @@
         <v>1812</v>
       </c>
       <c r="E339" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="F339" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="G339" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="H339" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="I339" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="J339" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="K339" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="L339" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="M339" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="N339" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="O339" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="Z339">
         <v>5</v>
@@ -25908,19 +25908,19 @@
         <v>8</v>
       </c>
       <c r="AT339" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="AU339" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="AV339" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="AW339" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="AX339" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="AY339" t="s">
         <v>1520</v>
@@ -25932,13 +25932,13 @@
         <v>1506</v>
       </c>
       <c r="BB339" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="BC339" t="s">
-        <v>2204</v>
-      </c>
-    </row>
-    <row r="340" spans="1:55" x14ac:dyDescent="0.2">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="340" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>1579</v>
       </c>
@@ -25974,7 +25974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>1579</v>
       </c>
@@ -26019,7 +26019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>1579</v>
       </c>
@@ -26055,7 +26055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>1579</v>
       </c>
@@ -26097,7 +26097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>1579</v>
       </c>
@@ -26145,7 +26145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>1579</v>
       </c>
@@ -26181,7 +26181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>1579</v>
       </c>
@@ -26217,7 +26217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>1579</v>
       </c>
@@ -26271,7 +26271,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="348" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>1579</v>
       </c>
@@ -26307,7 +26307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>1579</v>
       </c>
@@ -26361,7 +26361,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="350" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>1579</v>
       </c>
@@ -26376,22 +26376,22 @@
         <v>1812</v>
       </c>
       <c r="E350" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="F350" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="H350" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="J350" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="L350" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="N350" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="AA350">
         <v>3</v>
@@ -26406,19 +26406,19 @@
         <v>2</v>
       </c>
       <c r="AT350" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="AU350" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="AV350" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="AW350" t="s">
-        <v>2294</v>
-      </c>
-    </row>
-    <row r="351" spans="1:55" x14ac:dyDescent="0.2">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="351" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>1579</v>
       </c>
@@ -26433,22 +26433,22 @@
         <v>1812</v>
       </c>
       <c r="E351" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="F351" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="H351" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="J351" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="L351" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="N351" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="AA351">
         <v>2</v>
@@ -26463,19 +26463,19 @@
         <v>4</v>
       </c>
       <c r="AT351" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="AU351" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="AV351" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="AW351" t="s">
-        <v>2284</v>
-      </c>
-    </row>
-    <row r="352" spans="1:55" x14ac:dyDescent="0.2">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="352" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1579</v>
       </c>
@@ -26490,16 +26490,16 @@
         <v>1812</v>
       </c>
       <c r="E352" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="F352" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="H352" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="J352" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="AA352">
         <v>2</v>
@@ -26508,13 +26508,13 @@
         <v>1</v>
       </c>
       <c r="AT352" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="AU352" t="s">
-        <v>2278</v>
-      </c>
-    </row>
-    <row r="353" spans="1:65" x14ac:dyDescent="0.2">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="353" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>1579</v>
       </c>
@@ -26529,22 +26529,22 @@
         <v>1812</v>
       </c>
       <c r="E353" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="F353" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="H353" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="J353" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="L353" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="N353" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="AA353">
         <v>3</v>
@@ -26559,19 +26559,19 @@
         <v>1</v>
       </c>
       <c r="AT353" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="AU353" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="AV353" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="AW353" t="s">
-        <v>2268</v>
-      </c>
-    </row>
-    <row r="354" spans="1:65" x14ac:dyDescent="0.2">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="354" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>1579</v>
       </c>
@@ -26586,37 +26586,37 @@
         <v>1812</v>
       </c>
       <c r="E354" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="F354" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="G354" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="H354" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="I354" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="J354" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="K354" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="L354" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="M354" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="N354" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="O354" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="Z354">
         <v>2</v>
@@ -26649,37 +26649,37 @@
         <v>8</v>
       </c>
       <c r="AT354" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="AU354" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="AV354" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="AW354" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="AX354" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="AY354" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="AZ354" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="BA354" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="BB354" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="BC354" t="s">
-        <v>2248</v>
-      </c>
-    </row>
-    <row r="355" spans="1:65" x14ac:dyDescent="0.2">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="355" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>326</v>
       </c>
@@ -26733,7 +26733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>326</v>
       </c>
@@ -26769,7 +26769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>326</v>
       </c>
@@ -26811,7 +26811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>326</v>
       </c>
@@ -26847,7 +26847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>326</v>
       </c>
@@ -26889,7 +26889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>326</v>
       </c>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>326</v>
       </c>
@@ -26973,7 +26973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>326</v>
       </c>
@@ -27009,7 +27009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>326</v>
       </c>
@@ -27087,7 +27087,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="364" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>326</v>
       </c>
@@ -27135,7 +27135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>326</v>
       </c>
@@ -27183,7 +27183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>326</v>
       </c>
@@ -27225,37 +27225,37 @@
         <v>0</v>
       </c>
       <c r="BD366" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="BE366" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="BF366" t="s">
         <v>420</v>
       </c>
       <c r="BG366" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="BH366" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="BI366" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="BJ366" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="BK366" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="BL366" t="s">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="BM366" t="s">
-        <v>1943</v>
-      </c>
-    </row>
-    <row r="367" spans="1:65" x14ac:dyDescent="0.2">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="367" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>326</v>
       </c>
@@ -27291,7 +27291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>326</v>
       </c>
@@ -27345,7 +27345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>326</v>
       </c>
@@ -27453,7 +27453,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="370" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>1374</v>
       </c>
@@ -27489,7 +27489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>1374</v>
       </c>
@@ -27519,7 +27519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>1374</v>
       </c>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>1374</v>
       </c>
@@ -27597,7 +27597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>1374</v>
       </c>
@@ -27613,7 +27613,7 @@
       </c>
       <c r="E374"/>
     </row>
-    <row r="375" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>1374</v>
       </c>
@@ -27655,7 +27655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>1374</v>
       </c>
@@ -27697,7 +27697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>1374</v>
       </c>
@@ -27739,7 +27739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>1374</v>
       </c>
@@ -27781,7 +27781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>1374</v>
       </c>
@@ -27823,7 +27823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>1374</v>
       </c>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>1374</v>
       </c>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>1374</v>
       </c>
@@ -27937,7 +27937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>1374</v>
       </c>
@@ -27973,7 +27973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>1374</v>
       </c>
@@ -27988,37 +27988,37 @@
         <v>1812</v>
       </c>
       <c r="E384" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="F384" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="G384" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="H384" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="I384" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="J384" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="K384" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="L384" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="M384" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="N384" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="O384" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="Z384">
         <v>1</v>
@@ -28051,37 +28051,37 @@
         <v>6</v>
       </c>
       <c r="AT384" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="AU384" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="AV384" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="AW384" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="AX384" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="AY384" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="AZ384" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="BA384" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="BB384" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="BC384" t="s">
-        <v>2145</v>
-      </c>
-    </row>
-    <row r="385" spans="1:55" x14ac:dyDescent="0.2">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="385" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>249</v>
       </c>
@@ -28129,7 +28129,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="386" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>249</v>
       </c>
@@ -28165,7 +28165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>249</v>
       </c>
@@ -28228,7 +28228,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="388" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>249</v>
       </c>
@@ -28276,7 +28276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>249</v>
       </c>
@@ -28330,7 +28330,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="390" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>249</v>
       </c>
@@ -28372,7 +28372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>249</v>
       </c>
@@ -28432,7 +28432,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="392" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>249</v>
       </c>
@@ -28492,7 +28492,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="393" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>249</v>
       </c>
@@ -28555,7 +28555,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="394" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>249</v>
       </c>
@@ -28603,7 +28603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>249</v>
       </c>
@@ -28657,7 +28657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>249</v>
       </c>
@@ -28729,7 +28729,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="397" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>249</v>
       </c>
@@ -28771,7 +28771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>249</v>
       </c>
@@ -29060,7 +29060,12 @@
       <c r="E458"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BC1">
+  <autoFilter ref="A1:BC398">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Statistik"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:BC398">
       <sortCondition ref="A1:A398"/>
     </sortState>

--- a/brillianquiz/WebContent/quiz/quiz-questions-template.xlsx
+++ b/brillianquiz/WebContent/quiz/quiz-questions-template.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="28800" windowHeight="15620"/>
+    <workbookView xWindow="14400" yWindow="860" windowWidth="14400" windowHeight="15620"/>
   </bookViews>
   <sheets>
     <sheet name="Kopie von convertcsv-1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Kopie von convertcsv-1'!$A$1:$BC$398</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Kopie von convertcsv-1'!$A$1:$BC$1</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -5516,6 +5516,12 @@
     <t>60/200 = 0,3</t>
   </si>
   <si>
+    <t>(60/200)+(130/200)-(50/200) = 0.,</t>
+  </si>
+  <si>
+    <t>10/200 = 0,05</t>
+  </si>
+  <si>
     <t>Das Release Management ist für die Implementierung zusammenhängender Veränderungsmaßnahmen verantwortlich. Dabei handelt es sich entweder um einen</t>
   </si>
   <si>
@@ -7479,12 +7485,6 @@
   </si>
   <si>
     <t>beendet</t>
-  </si>
-  <si>
-    <t>50/130 = 0,38</t>
-  </si>
-  <si>
-    <t>(60/200)+(130/200)-(50/200) = 0,7</t>
   </si>
 </sst>
 </file>
@@ -7898,11 +7898,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet 1" filterMode="1" enableFormatConditionsCalculation="0"/>
+  <sheetPr codeName="Sheet 1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:CC458"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I399" sqref="I399"/>
+    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="BO413" sqref="BO413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
@@ -7972,25 +7972,25 @@
         <v>1746</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>1883</v>
+        <v>1885</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>1884</v>
+        <v>1886</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>1885</v>
+        <v>1887</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>1886</v>
+        <v>1888</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>1887</v>
+        <v>1889</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>1888</v>
+        <v>1890</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>1889</v>
+        <v>1891</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>23</v>
@@ -8032,25 +8032,25 @@
         <v>1749</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>1890</v>
+        <v>1892</v>
       </c>
       <c r="AN1" s="3" t="s">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="AO1" s="3" t="s">
-        <v>1892</v>
+        <v>1894</v>
       </c>
       <c r="AP1" s="3" t="s">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="AQ1" s="3" t="s">
-        <v>1894</v>
+        <v>1896</v>
       </c>
       <c r="AR1" s="3" t="s">
-        <v>1895</v>
+        <v>1897</v>
       </c>
       <c r="AS1" s="3" t="s">
-        <v>1896</v>
+        <v>1898</v>
       </c>
       <c r="AT1" s="3" t="s">
         <v>19</v>
@@ -8083,7 +8083,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>829</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>829</v>
       </c>
@@ -8211,7 +8211,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="4" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>829</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>829</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="6" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>829</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>829</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>829</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>829</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>829</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>829</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>829</v>
       </c>
@@ -8580,25 +8580,25 @@
         <v>1812</v>
       </c>
       <c r="E12" t="s">
+        <v>1884</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1883</v>
+      </c>
+      <c r="H12" t="s">
         <v>1882</v>
       </c>
-      <c r="F12" t="s">
+      <c r="J12" t="s">
         <v>1881</v>
       </c>
-      <c r="H12" t="s">
+      <c r="L12" t="s">
         <v>1880</v>
       </c>
-      <c r="J12" t="s">
-        <v>1879</v>
-      </c>
-      <c r="L12" t="s">
-        <v>1878</v>
-      </c>
       <c r="N12" t="s">
-        <v>2391</v>
+        <v>2393</v>
       </c>
       <c r="P12" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="AA12">
         <v>4</v>
@@ -8616,22 +8616,22 @@
         <v>3</v>
       </c>
       <c r="AT12" t="s">
-        <v>2476</v>
+        <v>2478</v>
       </c>
       <c r="AU12" t="s">
-        <v>2477</v>
+        <v>2479</v>
       </c>
       <c r="AV12" t="s">
-        <v>2478</v>
+        <v>2480</v>
       </c>
       <c r="AW12" t="s">
-        <v>2480</v>
+        <v>2482</v>
       </c>
       <c r="AX12" t="s">
-        <v>2479</v>
-      </c>
-    </row>
-    <row r="13" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>829</v>
       </c>
@@ -8646,7 +8646,7 @@
         <v>1812</v>
       </c>
       <c r="E13" t="s">
-        <v>2197</v>
+        <v>2199</v>
       </c>
       <c r="F13" t="s">
         <v>835</v>
@@ -8667,7 +8667,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="14" spans="1:81" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>829</v>
       </c>
@@ -8682,22 +8682,22 @@
         <v>1812</v>
       </c>
       <c r="E14" t="s">
-        <v>2198</v>
+        <v>2200</v>
       </c>
       <c r="F14" t="s">
-        <v>1877</v>
+        <v>1879</v>
       </c>
       <c r="G14"/>
       <c r="H14" t="s">
-        <v>1876</v>
+        <v>1878</v>
       </c>
       <c r="I14"/>
       <c r="J14" t="s">
-        <v>1875</v>
+        <v>1877</v>
       </c>
       <c r="K14"/>
       <c r="L14" t="s">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="M14"/>
       <c r="N14"/>
@@ -8742,10 +8742,10 @@
         <v>843</v>
       </c>
       <c r="AU14" t="s">
-        <v>2481</v>
+        <v>2483</v>
       </c>
       <c r="AV14" t="s">
-        <v>2482</v>
+        <v>2484</v>
       </c>
       <c r="AW14"/>
       <c r="AX14"/>
@@ -8781,7 +8781,7 @@
       <c r="CB14"/>
       <c r="CC14"/>
     </row>
-    <row r="15" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>829</v>
       </c>
@@ -8796,19 +8796,19 @@
         <v>1812</v>
       </c>
       <c r="E15" t="s">
-        <v>2199</v>
+        <v>2201</v>
       </c>
       <c r="F15" t="s">
+        <v>2195</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2194</v>
+      </c>
+      <c r="J15" t="s">
         <v>2193</v>
       </c>
-      <c r="H15" t="s">
+      <c r="L15" t="s">
         <v>2192</v>
-      </c>
-      <c r="J15" t="s">
-        <v>2191</v>
-      </c>
-      <c r="L15" t="s">
-        <v>2190</v>
       </c>
       <c r="AA15">
         <v>3</v>
@@ -8820,16 +8820,16 @@
         <v>1</v>
       </c>
       <c r="AT15" t="s">
+        <v>2191</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>2190</v>
+      </c>
+      <c r="AV15" t="s">
         <v>2189</v>
       </c>
-      <c r="AU15" t="s">
-        <v>2188</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>2187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>829</v>
       </c>
@@ -8844,19 +8844,19 @@
         <v>1812</v>
       </c>
       <c r="E16" t="s">
-        <v>2200</v>
+        <v>2202</v>
       </c>
       <c r="F16" t="s">
+        <v>2188</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2187</v>
+      </c>
+      <c r="J16" t="s">
         <v>2186</v>
       </c>
-      <c r="H16" t="s">
-        <v>2185</v>
-      </c>
-      <c r="J16" t="s">
-        <v>2184</v>
-      </c>
       <c r="M16" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="AA16">
         <v>2</v>
@@ -8868,16 +8868,16 @@
         <v>1</v>
       </c>
       <c r="AT16" t="s">
+        <v>2185</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>2184</v>
+      </c>
+      <c r="AV16" t="s">
         <v>2183</v>
       </c>
-      <c r="AU16" t="s">
-        <v>2182</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>2181</v>
-      </c>
-    </row>
-    <row r="17" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>829</v>
       </c>
@@ -8892,37 +8892,37 @@
         <v>1812</v>
       </c>
       <c r="E17" t="s">
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c r="F17" t="s">
+        <v>2182</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2181</v>
+      </c>
+      <c r="H17" t="s">
         <v>2180</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>2179</v>
-      </c>
-      <c r="H17" t="s">
-        <v>2178</v>
-      </c>
-      <c r="I17" t="s">
-        <v>2177</v>
       </c>
       <c r="J17" t="s">
         <v>857</v>
       </c>
       <c r="K17" t="s">
+        <v>2178</v>
+      </c>
+      <c r="L17" t="s">
+        <v>2177</v>
+      </c>
+      <c r="M17" t="s">
         <v>2176</v>
       </c>
-      <c r="L17" t="s">
+      <c r="N17" t="s">
         <v>2175</v>
       </c>
-      <c r="M17" t="s">
+      <c r="O17" t="s">
         <v>2174</v>
-      </c>
-      <c r="N17" t="s">
-        <v>2173</v>
-      </c>
-      <c r="O17" t="s">
-        <v>2172</v>
       </c>
       <c r="Z17">
         <v>7</v>
@@ -8958,34 +8958,34 @@
         <v>737</v>
       </c>
       <c r="AU17" t="s">
+        <v>2173</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>2172</v>
+      </c>
+      <c r="AW17" t="s">
         <v>2171</v>
       </c>
-      <c r="AV17" t="s">
+      <c r="AX17" t="s">
         <v>2170</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="AY17" t="s">
         <v>2169</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="AZ17" t="s">
         <v>2168</v>
       </c>
-      <c r="AY17" t="s">
+      <c r="BA17" t="s">
         <v>2167</v>
       </c>
-      <c r="AZ17" t="s">
+      <c r="BB17" t="s">
         <v>2166</v>
       </c>
-      <c r="BA17" t="s">
+      <c r="BC17" t="s">
         <v>2165</v>
       </c>
-      <c r="BB17" t="s">
-        <v>2164</v>
-      </c>
-      <c r="BC17" t="s">
-        <v>2163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1572</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1572</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="20" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1572</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1572</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1572</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="23" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1572</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1572</v>
       </c>
@@ -9432,7 +9432,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="25" spans="1:81" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1572</v>
       </c>
@@ -9546,7 +9546,7 @@
       <c r="CB25"/>
       <c r="CC25"/>
     </row>
-    <row r="26" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1572</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="27" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1572</v>
       </c>
@@ -9624,28 +9624,28 @@
         <v>1812</v>
       </c>
       <c r="E27" t="s">
+        <v>2454</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2453</v>
+      </c>
+      <c r="H27" t="s">
         <v>2452</v>
       </c>
-      <c r="F27" t="s">
+      <c r="J27" t="s">
         <v>2451</v>
       </c>
-      <c r="H27" t="s">
+      <c r="L27" t="s">
         <v>2450</v>
       </c>
-      <c r="J27" t="s">
+      <c r="N27" t="s">
         <v>2449</v>
       </c>
-      <c r="L27" t="s">
+      <c r="P27" t="s">
         <v>2448</v>
       </c>
-      <c r="N27" t="s">
+      <c r="R27" t="s">
         <v>2447</v>
-      </c>
-      <c r="P27" t="s">
-        <v>2446</v>
-      </c>
-      <c r="R27" t="s">
-        <v>2445</v>
       </c>
       <c r="AA27">
         <v>6</v>
@@ -9666,7 +9666,7 @@
         <v>3</v>
       </c>
       <c r="AT27" t="s">
-        <v>2444</v>
+        <v>2446</v>
       </c>
       <c r="AU27" t="s">
         <v>603</v>
@@ -9675,16 +9675,16 @@
         <v>600</v>
       </c>
       <c r="AW27" t="s">
+        <v>2445</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>2444</v>
+      </c>
+      <c r="AY27" t="s">
         <v>2443</v>
       </c>
-      <c r="AX27" t="s">
-        <v>2442</v>
-      </c>
-      <c r="AY27" t="s">
-        <v>2441</v>
-      </c>
-    </row>
-    <row r="28" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1572</v>
       </c>
@@ -9699,28 +9699,28 @@
         <v>1812</v>
       </c>
       <c r="E28" t="s">
+        <v>2442</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2441</v>
+      </c>
+      <c r="H28" t="s">
         <v>2440</v>
       </c>
-      <c r="F28" t="s">
+      <c r="J28" t="s">
         <v>2439</v>
       </c>
-      <c r="H28" t="s">
+      <c r="L28" t="s">
         <v>2438</v>
       </c>
-      <c r="J28" t="s">
+      <c r="N28" t="s">
         <v>2437</v>
       </c>
-      <c r="L28" t="s">
+      <c r="P28" t="s">
         <v>2436</v>
       </c>
-      <c r="N28" t="s">
+      <c r="R28" t="s">
         <v>2435</v>
-      </c>
-      <c r="P28" t="s">
-        <v>2434</v>
-      </c>
-      <c r="R28" t="s">
-        <v>2433</v>
       </c>
       <c r="AA28">
         <v>3</v>
@@ -9741,25 +9741,25 @@
         <v>4</v>
       </c>
       <c r="AT28" t="s">
+        <v>2434</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>2399</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>2433</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>2400</v>
+      </c>
+      <c r="AX28" t="s">
         <v>2432</v>
       </c>
-      <c r="AU28" t="s">
-        <v>2397</v>
-      </c>
-      <c r="AV28" t="s">
+      <c r="AY28" t="s">
         <v>2431</v>
       </c>
-      <c r="AW28" t="s">
-        <v>2398</v>
-      </c>
-      <c r="AX28" t="s">
-        <v>2430</v>
-      </c>
-      <c r="AY28" t="s">
-        <v>2429</v>
-      </c>
-    </row>
-    <row r="29" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1572</v>
       </c>
@@ -9774,22 +9774,22 @@
         <v>1812</v>
       </c>
       <c r="E29" t="s">
+        <v>2430</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2429</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2393</v>
+      </c>
+      <c r="J29" t="s">
         <v>2428</v>
       </c>
-      <c r="F29" t="s">
+      <c r="L29" t="s">
+        <v>2393</v>
+      </c>
+      <c r="N29" t="s">
         <v>2427</v>
-      </c>
-      <c r="H29" t="s">
-        <v>2391</v>
-      </c>
-      <c r="J29" t="s">
-        <v>2426</v>
-      </c>
-      <c r="L29" t="s">
-        <v>2391</v>
-      </c>
-      <c r="N29" t="s">
-        <v>2425</v>
       </c>
       <c r="AA29">
         <v>3</v>
@@ -9804,19 +9804,19 @@
         <v>4</v>
       </c>
       <c r="AT29" t="s">
+        <v>2426</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>2425</v>
+      </c>
+      <c r="AV29" t="s">
         <v>2424</v>
       </c>
-      <c r="AU29" t="s">
+      <c r="AW29" t="s">
         <v>2423</v>
       </c>
-      <c r="AV29" t="s">
-        <v>2422</v>
-      </c>
-      <c r="AW29" t="s">
-        <v>2421</v>
-      </c>
-    </row>
-    <row r="30" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1572</v>
       </c>
@@ -9831,22 +9831,22 @@
         <v>1812</v>
       </c>
       <c r="E30" t="s">
+        <v>2422</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2421</v>
+      </c>
+      <c r="H30" t="s">
         <v>2420</v>
       </c>
-      <c r="F30" t="s">
+      <c r="J30" t="s">
         <v>2419</v>
       </c>
-      <c r="H30" t="s">
+      <c r="L30" t="s">
         <v>2418</v>
       </c>
-      <c r="J30" t="s">
-        <v>2417</v>
-      </c>
-      <c r="L30" t="s">
-        <v>2416</v>
-      </c>
       <c r="N30" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="AA30">
         <v>2</v>
@@ -9861,19 +9861,19 @@
         <v>3</v>
       </c>
       <c r="AT30" t="s">
-        <v>2399</v>
+        <v>2401</v>
       </c>
       <c r="AU30" t="s">
-        <v>2415</v>
+        <v>2417</v>
       </c>
       <c r="AV30" t="s">
-        <v>2414</v>
+        <v>2416</v>
       </c>
       <c r="AW30" t="s">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="31" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1572</v>
       </c>
@@ -9888,37 +9888,37 @@
         <v>1812</v>
       </c>
       <c r="E31" t="s">
+        <v>2415</v>
+      </c>
+      <c r="F31" t="s">
+        <v>2414</v>
+      </c>
+      <c r="G31" t="s">
         <v>2413</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
         <v>2412</v>
       </c>
-      <c r="G31" t="s">
+      <c r="I31" t="s">
         <v>2411</v>
       </c>
-      <c r="H31" t="s">
+      <c r="J31" t="s">
         <v>2410</v>
       </c>
-      <c r="I31" t="s">
+      <c r="K31" t="s">
         <v>2409</v>
       </c>
-      <c r="J31" t="s">
+      <c r="L31" t="s">
         <v>2408</v>
       </c>
-      <c r="K31" t="s">
+      <c r="M31" t="s">
         <v>2407</v>
       </c>
-      <c r="L31" t="s">
+      <c r="N31" t="s">
         <v>2406</v>
       </c>
-      <c r="M31" t="s">
+      <c r="O31" t="s">
         <v>2405</v>
-      </c>
-      <c r="N31" t="s">
-        <v>2404</v>
-      </c>
-      <c r="O31" t="s">
-        <v>2403</v>
       </c>
       <c r="Z31">
         <v>9</v>
@@ -9951,34 +9951,34 @@
         <v>600</v>
       </c>
       <c r="AU31" t="s">
+        <v>2404</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>2403</v>
+      </c>
+      <c r="AW31" t="s">
         <v>2402</v>
       </c>
-      <c r="AV31" t="s">
+      <c r="AX31" t="s">
         <v>2401</v>
       </c>
-      <c r="AW31" t="s">
+      <c r="AY31" t="s">
         <v>2400</v>
       </c>
-      <c r="AX31" t="s">
+      <c r="AZ31" t="s">
         <v>2399</v>
       </c>
-      <c r="AY31" t="s">
+      <c r="BA31" t="s">
         <v>2398</v>
       </c>
-      <c r="AZ31" t="s">
+      <c r="BB31" t="s">
         <v>2397</v>
       </c>
-      <c r="BA31" t="s">
+      <c r="BC31" t="s">
         <v>2396</v>
       </c>
-      <c r="BB31" t="s">
-        <v>2395</v>
-      </c>
-      <c r="BC31" t="s">
-        <v>2394</v>
-      </c>
-    </row>
-    <row r="32" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1806</v>
       </c>
@@ -10083,7 +10083,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="33" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1806</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="34" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1806</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:81" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1806</v>
       </c>
@@ -10322,7 +10322,7 @@
       <c r="CB35"/>
       <c r="CC35"/>
     </row>
-    <row r="36" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1806</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1806</v>
       </c>
@@ -10406,7 +10406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1806</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1806</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:81" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1660</v>
       </c>
@@ -10610,7 +10610,7 @@
       <c r="CB40"/>
       <c r="CC40"/>
     </row>
-    <row r="41" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1660</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1660</v>
       </c>
@@ -10670,7 +10670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1660</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1660</v>
       </c>
@@ -10730,7 +10730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1640</v>
       </c>
@@ -10760,7 +10760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1640</v>
       </c>
@@ -10790,7 +10790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1640</v>
       </c>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1640</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1640</v>
       </c>
@@ -10880,7 +10880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1640</v>
       </c>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1640</v>
       </c>
@@ -10940,7 +10940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1640</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1640</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1640</v>
       </c>
@@ -11030,7 +11030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:81" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1640</v>
       </c>
@@ -11132,7 +11132,7 @@
       <c r="CB55"/>
       <c r="CC55"/>
     </row>
-    <row r="56" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1640</v>
       </c>
@@ -11162,7 +11162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:81" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1640</v>
       </c>
@@ -11264,7 +11264,7 @@
       <c r="CB57"/>
       <c r="CC57"/>
     </row>
-    <row r="58" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1640</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1640</v>
       </c>
@@ -11324,7 +11324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1574</v>
       </c>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1574</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="62" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1574</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="63" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1574</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1574</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1574</v>
       </c>
@@ -11657,7 +11657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:81" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1574</v>
       </c>
@@ -11781,7 +11781,7 @@
       <c r="CB66"/>
       <c r="CC66"/>
     </row>
-    <row r="67" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1574</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="68" spans="1:81" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1574</v>
       </c>
@@ -11954,7 +11954,7 @@
       <c r="CB68"/>
       <c r="CC68"/>
     </row>
-    <row r="69" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1574</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="70" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1574</v>
       </c>
@@ -12077,7 +12077,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="71" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1574</v>
       </c>
@@ -12119,7 +12119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1574</v>
       </c>
@@ -12182,7 +12182,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="73" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1574</v>
       </c>
@@ -12200,19 +12200,19 @@
         <v>426</v>
       </c>
       <c r="F73" t="s">
+        <v>2342</v>
+      </c>
+      <c r="H73" t="s">
+        <v>2341</v>
+      </c>
+      <c r="J73" t="s">
         <v>2340</v>
       </c>
-      <c r="H73" t="s">
+      <c r="L73" t="s">
         <v>2339</v>
       </c>
-      <c r="J73" t="s">
+      <c r="N73" t="s">
         <v>2338</v>
-      </c>
-      <c r="L73" t="s">
-        <v>2337</v>
-      </c>
-      <c r="N73" t="s">
-        <v>2336</v>
       </c>
       <c r="AA73">
         <v>2</v>
@@ -12230,7 +12230,7 @@
         <v>802</v>
       </c>
       <c r="AU73" t="s">
-        <v>2335</v>
+        <v>2337</v>
       </c>
       <c r="AV73" t="s">
         <v>826</v>
@@ -12239,7 +12239,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="74" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1574</v>
       </c>
@@ -12257,34 +12257,34 @@
         <v>235</v>
       </c>
       <c r="F74" t="s">
+        <v>2336</v>
+      </c>
+      <c r="G74" t="s">
+        <v>2335</v>
+      </c>
+      <c r="H74" t="s">
         <v>2334</v>
       </c>
-      <c r="G74" t="s">
+      <c r="I74" t="s">
         <v>2333</v>
       </c>
-      <c r="H74" t="s">
+      <c r="J74" t="s">
         <v>2332</v>
       </c>
-      <c r="I74" t="s">
+      <c r="K74" t="s">
         <v>2331</v>
       </c>
-      <c r="J74" t="s">
+      <c r="L74" t="s">
         <v>2330</v>
       </c>
-      <c r="K74" t="s">
+      <c r="M74" t="s">
         <v>2329</v>
       </c>
-      <c r="L74" t="s">
+      <c r="N74" t="s">
         <v>2328</v>
       </c>
-      <c r="M74" t="s">
+      <c r="O74" t="s">
         <v>2327</v>
-      </c>
-      <c r="N74" t="s">
-        <v>2326</v>
-      </c>
-      <c r="O74" t="s">
-        <v>2325</v>
       </c>
       <c r="Z74">
         <v>10</v>
@@ -12317,7 +12317,7 @@
         <v>7</v>
       </c>
       <c r="AT74" t="s">
-        <v>2324</v>
+        <v>2326</v>
       </c>
       <c r="AU74" t="s">
         <v>788</v>
@@ -12335,19 +12335,19 @@
         <v>826</v>
       </c>
       <c r="AZ74" t="s">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c r="BA74" t="s">
         <v>749</v>
       </c>
       <c r="BB74" t="s">
-        <v>2322</v>
+        <v>2324</v>
       </c>
       <c r="BC74" t="s">
-        <v>2321</v>
-      </c>
-    </row>
-    <row r="75" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="75" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1808</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="76" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1808</v>
       </c>
@@ -12461,7 +12461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1808</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1808</v>
       </c>
@@ -12539,7 +12539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1808</v>
       </c>
@@ -12569,7 +12569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1808</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1808</v>
       </c>
@@ -12629,7 +12629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1808</v>
       </c>
@@ -12659,7 +12659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1807</v>
       </c>
@@ -12746,7 +12746,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="84" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1807</v>
       </c>
@@ -12821,7 +12821,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="85" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1807</v>
       </c>
@@ -12869,7 +12869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1807</v>
       </c>
@@ -12917,7 +12917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>1807</v>
       </c>
@@ -12947,7 +12947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>1807</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>1807</v>
       </c>
@@ -13007,7 +13007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1807</v>
       </c>
@@ -13037,7 +13037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>1807</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>1805</v>
       </c>
@@ -13142,7 +13142,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="93" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>1805</v>
       </c>
@@ -13190,7 +13190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>1805</v>
       </c>
@@ -13238,7 +13238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>1805</v>
       </c>
@@ -13286,7 +13286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>1805</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>1805</v>
       </c>
@@ -13364,7 +13364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>1805</v>
       </c>
@@ -13394,7 +13394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>1805</v>
       </c>
@@ -13424,7 +13424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:81" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>1805</v>
       </c>
@@ -13526,7 +13526,7 @@
       <c r="CB100"/>
       <c r="CC100"/>
     </row>
-    <row r="101" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>1805</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>1575</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="103" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1575</v>
       </c>
@@ -13697,7 +13697,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="104" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1575</v>
       </c>
@@ -13775,7 +13775,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="105" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1575</v>
       </c>
@@ -13811,7 +13811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1575</v>
       </c>
@@ -13847,7 +13847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1575</v>
       </c>
@@ -13883,7 +13883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1575</v>
       </c>
@@ -13913,7 +13913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1575</v>
       </c>
@@ -13979,7 +13979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1575</v>
       </c>
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1575</v>
       </c>
@@ -14051,7 +14051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1575</v>
       </c>
@@ -14087,7 +14087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1575</v>
       </c>
@@ -14102,22 +14102,22 @@
         <v>1812</v>
       </c>
       <c r="E113" t="s">
-        <v>2194</v>
+        <v>2196</v>
       </c>
       <c r="F113" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H113" t="s">
         <v>1940</v>
       </c>
-      <c r="H113" t="s">
-        <v>1938</v>
-      </c>
       <c r="J113" t="s">
-        <v>1939</v>
+        <v>1941</v>
       </c>
       <c r="L113" t="s">
-        <v>1938</v>
+        <v>1940</v>
       </c>
       <c r="N113" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="AA113">
         <v>4</v>
@@ -14132,19 +14132,19 @@
         <v>2</v>
       </c>
       <c r="AT113" t="s">
-        <v>1937</v>
+        <v>1939</v>
       </c>
       <c r="AU113" t="s">
         <v>1485</v>
       </c>
       <c r="AV113" t="s">
-        <v>1936</v>
+        <v>1938</v>
       </c>
       <c r="AW113" t="s">
-        <v>1935</v>
-      </c>
-    </row>
-    <row r="114" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="114" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1575</v>
       </c>
@@ -14159,19 +14159,19 @@
         <v>1812</v>
       </c>
       <c r="E114" t="s">
+        <v>1936</v>
+      </c>
+      <c r="F114" t="s">
+        <v>1935</v>
+      </c>
+      <c r="H114" t="s">
         <v>1934</v>
       </c>
-      <c r="F114" t="s">
+      <c r="J114" t="s">
         <v>1933</v>
       </c>
-      <c r="H114" t="s">
+      <c r="L114" t="s">
         <v>1932</v>
-      </c>
-      <c r="J114" t="s">
-        <v>1931</v>
-      </c>
-      <c r="L114" t="s">
-        <v>1930</v>
       </c>
       <c r="AA114">
         <v>3</v>
@@ -14183,16 +14183,16 @@
         <v>2</v>
       </c>
       <c r="AT114" t="s">
+        <v>1931</v>
+      </c>
+      <c r="AU114" t="s">
+        <v>1930</v>
+      </c>
+      <c r="AV114" t="s">
         <v>1929</v>
       </c>
-      <c r="AU114" t="s">
-        <v>1928</v>
-      </c>
-      <c r="AV114" t="s">
-        <v>1927</v>
-      </c>
-    </row>
-    <row r="115" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1575</v>
       </c>
@@ -14207,22 +14207,22 @@
         <v>1812</v>
       </c>
       <c r="E115" t="s">
+        <v>1928</v>
+      </c>
+      <c r="F115" t="s">
+        <v>1927</v>
+      </c>
+      <c r="H115" t="s">
         <v>1926</v>
       </c>
-      <c r="F115" t="s">
+      <c r="J115" t="s">
         <v>1925</v>
       </c>
-      <c r="H115" t="s">
+      <c r="L115" t="s">
         <v>1924</v>
       </c>
-      <c r="J115" t="s">
+      <c r="N115" t="s">
         <v>1923</v>
-      </c>
-      <c r="L115" t="s">
-        <v>1922</v>
-      </c>
-      <c r="N115" t="s">
-        <v>1921</v>
       </c>
       <c r="AA115">
         <v>5</v>
@@ -14240,22 +14240,22 @@
         <v>2</v>
       </c>
       <c r="AT115" t="s">
+        <v>1922</v>
+      </c>
+      <c r="AU115" t="s">
+        <v>1921</v>
+      </c>
+      <c r="AV115" t="s">
         <v>1920</v>
       </c>
-      <c r="AU115" t="s">
+      <c r="AW115" t="s">
         <v>1919</v>
       </c>
-      <c r="AV115" t="s">
+      <c r="AX115" t="s">
         <v>1918</v>
       </c>
-      <c r="AW115" t="s">
-        <v>1917</v>
-      </c>
-      <c r="AX115" t="s">
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="116" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1575</v>
       </c>
@@ -14273,34 +14273,34 @@
         <v>103</v>
       </c>
       <c r="F116" t="s">
+        <v>1917</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1916</v>
+      </c>
+      <c r="H116" t="s">
         <v>1915</v>
       </c>
-      <c r="G116" t="s">
+      <c r="I116" t="s">
         <v>1914</v>
       </c>
-      <c r="H116" t="s">
+      <c r="J116" t="s">
         <v>1913</v>
       </c>
-      <c r="I116" t="s">
+      <c r="K116" t="s">
         <v>1912</v>
       </c>
-      <c r="J116" t="s">
+      <c r="L116" t="s">
         <v>1911</v>
       </c>
-      <c r="K116" t="s">
+      <c r="M116" t="s">
         <v>1910</v>
       </c>
-      <c r="L116" t="s">
+      <c r="N116" t="s">
         <v>1909</v>
       </c>
-      <c r="M116" t="s">
+      <c r="O116" t="s">
         <v>1908</v>
-      </c>
-      <c r="N116" t="s">
-        <v>1907</v>
-      </c>
-      <c r="O116" t="s">
-        <v>1906</v>
       </c>
       <c r="Z116">
         <v>3</v>
@@ -14333,37 +14333,37 @@
         <v>4</v>
       </c>
       <c r="AT116" t="s">
+        <v>1907</v>
+      </c>
+      <c r="AU116" t="s">
+        <v>1906</v>
+      </c>
+      <c r="AV116" t="s">
         <v>1905</v>
       </c>
-      <c r="AU116" t="s">
+      <c r="AW116" t="s">
         <v>1904</v>
       </c>
-      <c r="AV116" t="s">
+      <c r="AX116" t="s">
         <v>1903</v>
       </c>
-      <c r="AW116" t="s">
+      <c r="AY116" t="s">
         <v>1902</v>
-      </c>
-      <c r="AX116" t="s">
-        <v>1901</v>
-      </c>
-      <c r="AY116" t="s">
-        <v>1900</v>
       </c>
       <c r="AZ116" t="s">
         <v>329</v>
       </c>
       <c r="BA116" t="s">
+        <v>1901</v>
+      </c>
+      <c r="BB116" t="s">
+        <v>1900</v>
+      </c>
+      <c r="BC116" t="s">
         <v>1899</v>
       </c>
-      <c r="BB116" t="s">
-        <v>1898</v>
-      </c>
-      <c r="BC116" t="s">
-        <v>1897</v>
-      </c>
-    </row>
-    <row r="117" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>219</v>
       </c>
@@ -14411,7 +14411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>219</v>
       </c>
@@ -14471,7 +14471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>219</v>
       </c>
@@ -14516,7 +14516,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="120" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>219</v>
       </c>
@@ -14588,7 +14588,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="121" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>219</v>
       </c>
@@ -14648,7 +14648,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="122" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>219</v>
       </c>
@@ -14708,7 +14708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>219</v>
       </c>
@@ -14762,7 +14762,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="124" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>219</v>
       </c>
@@ -14816,7 +14816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>219</v>
       </c>
@@ -14861,7 +14861,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="126" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>219</v>
       </c>
@@ -14903,7 +14903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>219</v>
       </c>
@@ -14933,7 +14933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>219</v>
       </c>
@@ -14975,7 +14975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>219</v>
       </c>
@@ -15029,7 +15029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>219</v>
       </c>
@@ -15071,7 +15071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>219</v>
       </c>
@@ -15179,7 +15179,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="132" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>939</v>
       </c>
@@ -15209,7 +15209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>939</v>
       </c>
@@ -15266,7 +15266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>939</v>
       </c>
@@ -15296,7 +15296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>939</v>
       </c>
@@ -15326,7 +15326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>939</v>
       </c>
@@ -15356,7 +15356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>939</v>
       </c>
@@ -15386,7 +15386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>939</v>
       </c>
@@ -15428,7 +15428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>939</v>
       </c>
@@ -15464,7 +15464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>939</v>
       </c>
@@ -15530,7 +15530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>939</v>
       </c>
@@ -15569,7 +15569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>939</v>
       </c>
@@ -15629,7 +15629,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="143" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>939</v>
       </c>
@@ -15659,7 +15659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:81" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:81" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>939</v>
       </c>
@@ -15761,7 +15761,7 @@
       <c r="CB144"/>
       <c r="CC144"/>
     </row>
-    <row r="145" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>939</v>
       </c>
@@ -15791,7 +15791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>939</v>
       </c>
@@ -15821,7 +15821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>939</v>
       </c>
@@ -15851,7 +15851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>939</v>
       </c>
@@ -15869,22 +15869,22 @@
         <v>989</v>
       </c>
       <c r="F148" t="s">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="G148" t="s">
-        <v>1869</v>
+        <v>1871</v>
       </c>
       <c r="H148" t="s">
-        <v>1870</v>
+        <v>1872</v>
       </c>
       <c r="I148" t="s">
-        <v>1871</v>
+        <v>1873</v>
       </c>
       <c r="J148" t="s">
-        <v>1872</v>
+        <v>1874</v>
       </c>
       <c r="K148" t="s">
-        <v>1873</v>
+        <v>1875</v>
       </c>
       <c r="Z148">
         <v>1</v>
@@ -15902,7 +15902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>939</v>
       </c>
@@ -15938,7 +15938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>939</v>
       </c>
@@ -15977,7 +15977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:81" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:81" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>939</v>
       </c>
@@ -16087,7 +16087,7 @@
       <c r="CB151"/>
       <c r="CC151"/>
     </row>
-    <row r="152" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>939</v>
       </c>
@@ -16117,7 +16117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>939</v>
       </c>
@@ -16159,7 +16159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>939</v>
       </c>
@@ -16213,7 +16213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>939</v>
       </c>
@@ -16243,7 +16243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>939</v>
       </c>
@@ -16273,7 +16273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>939</v>
       </c>
@@ -16303,7 +16303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>939</v>
       </c>
@@ -16333,7 +16333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>939</v>
       </c>
@@ -16348,67 +16348,67 @@
         <v>1812</v>
       </c>
       <c r="E159" t="s">
-        <v>2195</v>
+        <v>2197</v>
       </c>
       <c r="F159" t="s">
+        <v>1979</v>
+      </c>
+      <c r="G159" t="s">
+        <v>1978</v>
+      </c>
+      <c r="H159" t="s">
         <v>1977</v>
       </c>
-      <c r="G159" t="s">
+      <c r="I159" t="s">
         <v>1976</v>
       </c>
-      <c r="H159" t="s">
+      <c r="J159" t="s">
         <v>1975</v>
       </c>
-      <c r="I159" t="s">
+      <c r="K159" t="s">
         <v>1974</v>
       </c>
-      <c r="J159" t="s">
+      <c r="L159" t="s">
         <v>1973</v>
       </c>
-      <c r="K159" t="s">
+      <c r="M159" t="s">
         <v>1972</v>
       </c>
-      <c r="L159" t="s">
+      <c r="N159" t="s">
         <v>1971</v>
       </c>
-      <c r="M159" t="s">
+      <c r="O159" t="s">
         <v>1970</v>
       </c>
-      <c r="N159" t="s">
+      <c r="P159" t="s">
         <v>1969</v>
       </c>
-      <c r="O159" t="s">
+      <c r="Q159" t="s">
         <v>1968</v>
       </c>
-      <c r="P159" t="s">
+      <c r="R159" t="s">
+        <v>1950</v>
+      </c>
+      <c r="S159" t="s">
         <v>1967</v>
       </c>
-      <c r="Q159" t="s">
+      <c r="T159" t="s">
         <v>1966</v>
       </c>
-      <c r="R159" t="s">
-        <v>1948</v>
-      </c>
-      <c r="S159" t="s">
+      <c r="U159" t="s">
         <v>1965</v>
       </c>
-      <c r="T159" t="s">
+      <c r="V159" t="s">
+        <v>2477</v>
+      </c>
+      <c r="W159" t="s">
         <v>1964</v>
       </c>
-      <c r="U159" t="s">
+      <c r="X159" t="s">
         <v>1963</v>
       </c>
-      <c r="V159" t="s">
-        <v>2475</v>
-      </c>
-      <c r="W159" t="s">
+      <c r="Y159" t="s">
         <v>1962</v>
-      </c>
-      <c r="X159" t="s">
-        <v>1961</v>
-      </c>
-      <c r="Y159" t="s">
-        <v>1960</v>
       </c>
       <c r="Z159">
         <v>3</v>
@@ -16471,37 +16471,37 @@
         <v>11</v>
       </c>
       <c r="AT159" t="s">
+        <v>1961</v>
+      </c>
+      <c r="AU159" t="s">
+        <v>1960</v>
+      </c>
+      <c r="AV159" t="s">
         <v>1959</v>
       </c>
-      <c r="AU159" t="s">
+      <c r="AW159" t="s">
         <v>1958</v>
       </c>
-      <c r="AV159" t="s">
+      <c r="AX159" t="s">
         <v>1957</v>
       </c>
-      <c r="AW159" t="s">
+      <c r="AY159" t="s">
         <v>1956</v>
       </c>
-      <c r="AX159" t="s">
+      <c r="AZ159" t="s">
         <v>1955</v>
       </c>
-      <c r="AY159" t="s">
+      <c r="BA159" t="s">
         <v>1954</v>
       </c>
-      <c r="AZ159" t="s">
+      <c r="BB159" t="s">
         <v>1953</v>
       </c>
-      <c r="BA159" t="s">
+      <c r="BC159" t="s">
         <v>1952</v>
       </c>
-      <c r="BB159" t="s">
-        <v>1951</v>
-      </c>
-      <c r="BC159" t="s">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="160" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1290</v>
       </c>
@@ -16573,7 +16573,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="161" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1290</v>
       </c>
@@ -16657,7 +16657,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="162" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1290</v>
       </c>
@@ -16741,7 +16741,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="163" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1290</v>
       </c>
@@ -16783,7 +16783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1290</v>
       </c>
@@ -16825,7 +16825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>1290</v>
       </c>
@@ -16840,22 +16840,22 @@
         <v>1812</v>
       </c>
       <c r="E165" t="s">
+        <v>2079</v>
+      </c>
+      <c r="F165" t="s">
+        <v>2078</v>
+      </c>
+      <c r="H165" t="s">
         <v>2077</v>
       </c>
-      <c r="F165" t="s">
+      <c r="J165" t="s">
         <v>2076</v>
       </c>
-      <c r="H165" t="s">
+      <c r="L165" t="s">
         <v>2075</v>
       </c>
-      <c r="J165" t="s">
-        <v>2074</v>
-      </c>
-      <c r="L165" t="s">
-        <v>2073</v>
-      </c>
       <c r="N165" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="AA165">
         <v>4</v>
@@ -16870,19 +16870,19 @@
         <v>3</v>
       </c>
       <c r="AT165" t="s">
+        <v>2074</v>
+      </c>
+      <c r="AU165" t="s">
+        <v>2073</v>
+      </c>
+      <c r="AV165" t="s">
         <v>2072</v>
       </c>
-      <c r="AU165" t="s">
+      <c r="AW165" t="s">
         <v>2071</v>
       </c>
-      <c r="AV165" t="s">
-        <v>2070</v>
-      </c>
-      <c r="AW165" t="s">
-        <v>2069</v>
-      </c>
-    </row>
-    <row r="166" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>1290</v>
       </c>
@@ -16897,22 +16897,22 @@
         <v>1812</v>
       </c>
       <c r="E166" t="s">
-        <v>2033</v>
+        <v>2035</v>
       </c>
       <c r="F166" t="s">
+        <v>2070</v>
+      </c>
+      <c r="H166" t="s">
+        <v>2069</v>
+      </c>
+      <c r="J166" t="s">
         <v>2068</v>
       </c>
-      <c r="H166" t="s">
+      <c r="L166" t="s">
         <v>2067</v>
       </c>
-      <c r="J166" t="s">
+      <c r="N166" t="s">
         <v>2066</v>
-      </c>
-      <c r="L166" t="s">
-        <v>2065</v>
-      </c>
-      <c r="N166" t="s">
-        <v>2064</v>
       </c>
       <c r="AA166">
         <v>4</v>
@@ -16927,19 +16927,19 @@
         <v>2</v>
       </c>
       <c r="AT166" t="s">
+        <v>2065</v>
+      </c>
+      <c r="AU166" t="s">
+        <v>2064</v>
+      </c>
+      <c r="AV166" t="s">
         <v>2063</v>
       </c>
-      <c r="AU166" t="s">
+      <c r="AW166" t="s">
         <v>2062</v>
       </c>
-      <c r="AV166" t="s">
-        <v>2061</v>
-      </c>
-      <c r="AW166" t="s">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="167" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1290</v>
       </c>
@@ -16954,22 +16954,22 @@
         <v>1812</v>
       </c>
       <c r="E167" t="s">
+        <v>2061</v>
+      </c>
+      <c r="F167" t="s">
+        <v>2060</v>
+      </c>
+      <c r="H167" t="s">
         <v>2059</v>
       </c>
-      <c r="F167" t="s">
+      <c r="J167" t="s">
         <v>2058</v>
       </c>
-      <c r="H167" t="s">
+      <c r="L167" t="s">
         <v>2057</v>
       </c>
-      <c r="J167" t="s">
-        <v>2056</v>
-      </c>
-      <c r="L167" t="s">
-        <v>2055</v>
-      </c>
       <c r="N167" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="AA167">
         <v>3</v>
@@ -16984,19 +16984,19 @@
         <v>4</v>
       </c>
       <c r="AT167" t="s">
+        <v>2056</v>
+      </c>
+      <c r="AU167" t="s">
+        <v>2055</v>
+      </c>
+      <c r="AV167" t="s">
         <v>2054</v>
       </c>
-      <c r="AU167" t="s">
+      <c r="AW167" t="s">
         <v>2053</v>
       </c>
-      <c r="AV167" t="s">
-        <v>2052</v>
-      </c>
-      <c r="AW167" t="s">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="168" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1290</v>
       </c>
@@ -17011,19 +17011,19 @@
         <v>1812</v>
       </c>
       <c r="E168" t="s">
+        <v>2052</v>
+      </c>
+      <c r="F168" t="s">
+        <v>2051</v>
+      </c>
+      <c r="H168" t="s">
         <v>2050</v>
       </c>
-      <c r="F168" t="s">
+      <c r="J168" t="s">
         <v>2049</v>
       </c>
-      <c r="H168" t="s">
+      <c r="L168" t="s">
         <v>2048</v>
-      </c>
-      <c r="J168" t="s">
-        <v>2047</v>
-      </c>
-      <c r="L168" t="s">
-        <v>2046</v>
       </c>
       <c r="AA168">
         <v>1</v>
@@ -17035,16 +17035,16 @@
         <v>2</v>
       </c>
       <c r="AT168" t="s">
+        <v>2047</v>
+      </c>
+      <c r="AU168" t="s">
+        <v>2046</v>
+      </c>
+      <c r="AV168" t="s">
         <v>2045</v>
       </c>
-      <c r="AU168" t="s">
-        <v>2044</v>
-      </c>
-      <c r="AV168" t="s">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="169" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1290</v>
       </c>
@@ -17059,22 +17059,22 @@
         <v>1812</v>
       </c>
       <c r="E169" t="s">
+        <v>2044</v>
+      </c>
+      <c r="F169" t="s">
+        <v>2043</v>
+      </c>
+      <c r="H169" t="s">
         <v>2042</v>
       </c>
-      <c r="F169" t="s">
+      <c r="J169" t="s">
         <v>2041</v>
       </c>
-      <c r="H169" t="s">
+      <c r="L169" t="s">
         <v>2040</v>
       </c>
-      <c r="J169" t="s">
+      <c r="N169" t="s">
         <v>2039</v>
-      </c>
-      <c r="L169" t="s">
-        <v>2038</v>
-      </c>
-      <c r="N169" t="s">
-        <v>2037</v>
       </c>
       <c r="AA169">
         <v>3</v>
@@ -17089,19 +17089,19 @@
         <v>2</v>
       </c>
       <c r="AT169" t="s">
+        <v>2038</v>
+      </c>
+      <c r="AU169" t="s">
+        <v>2037</v>
+      </c>
+      <c r="AV169" t="s">
         <v>2036</v>
       </c>
-      <c r="AU169" t="s">
+      <c r="AW169" t="s">
         <v>2035</v>
       </c>
-      <c r="AV169" t="s">
-        <v>2034</v>
-      </c>
-      <c r="AW169" t="s">
-        <v>2033</v>
-      </c>
-    </row>
-    <row r="170" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1290</v>
       </c>
@@ -17116,22 +17116,22 @@
         <v>1812</v>
       </c>
       <c r="E170" t="s">
+        <v>2034</v>
+      </c>
+      <c r="F170" t="s">
+        <v>2033</v>
+      </c>
+      <c r="H170" t="s">
         <v>2032</v>
       </c>
-      <c r="F170" t="s">
+      <c r="J170" t="s">
         <v>2031</v>
       </c>
-      <c r="H170" t="s">
+      <c r="L170" t="s">
         <v>2030</v>
       </c>
-      <c r="J170" t="s">
-        <v>2029</v>
-      </c>
-      <c r="L170" t="s">
-        <v>2028</v>
-      </c>
       <c r="N170" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="AA170">
         <v>3</v>
@@ -17146,19 +17146,19 @@
         <v>1</v>
       </c>
       <c r="AT170" t="s">
+        <v>2029</v>
+      </c>
+      <c r="AU170" t="s">
+        <v>2028</v>
+      </c>
+      <c r="AV170" t="s">
         <v>2027</v>
       </c>
-      <c r="AU170" t="s">
+      <c r="AW170" t="s">
         <v>2026</v>
       </c>
-      <c r="AV170" t="s">
-        <v>2025</v>
-      </c>
-      <c r="AW170" t="s">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="171" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1290</v>
       </c>
@@ -17173,22 +17173,22 @@
         <v>1812</v>
       </c>
       <c r="E171" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F171" t="s">
+        <v>2024</v>
+      </c>
+      <c r="H171" t="s">
         <v>2023</v>
       </c>
-      <c r="F171" t="s">
+      <c r="J171" t="s">
         <v>2022</v>
       </c>
-      <c r="H171" t="s">
+      <c r="L171" t="s">
         <v>2021</v>
       </c>
-      <c r="J171" t="s">
+      <c r="N171" t="s">
         <v>2020</v>
-      </c>
-      <c r="L171" t="s">
-        <v>2019</v>
-      </c>
-      <c r="N171" t="s">
-        <v>2018</v>
       </c>
       <c r="AA171">
         <v>3</v>
@@ -17203,19 +17203,19 @@
         <v>2</v>
       </c>
       <c r="AT171" t="s">
+        <v>2019</v>
+      </c>
+      <c r="AU171" t="s">
+        <v>2018</v>
+      </c>
+      <c r="AV171" t="s">
         <v>2017</v>
       </c>
-      <c r="AU171" t="s">
+      <c r="AW171" t="s">
         <v>2016</v>
       </c>
-      <c r="AV171" t="s">
-        <v>2015</v>
-      </c>
-      <c r="AW171" t="s">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="172" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1290</v>
       </c>
@@ -17230,22 +17230,22 @@
         <v>1812</v>
       </c>
       <c r="E172" t="s">
+        <v>2015</v>
+      </c>
+      <c r="F172" t="s">
+        <v>2014</v>
+      </c>
+      <c r="H172" t="s">
         <v>2013</v>
       </c>
-      <c r="F172" t="s">
+      <c r="J172" t="s">
         <v>2012</v>
       </c>
-      <c r="H172" t="s">
+      <c r="L172" t="s">
         <v>2011</v>
       </c>
-      <c r="J172" t="s">
+      <c r="N172" t="s">
         <v>2010</v>
-      </c>
-      <c r="L172" t="s">
-        <v>2009</v>
-      </c>
-      <c r="N172" t="s">
-        <v>2008</v>
       </c>
       <c r="AA172">
         <v>3</v>
@@ -17260,19 +17260,19 @@
         <v>1</v>
       </c>
       <c r="AT172" t="s">
+        <v>2009</v>
+      </c>
+      <c r="AU172" t="s">
+        <v>2008</v>
+      </c>
+      <c r="AV172" t="s">
         <v>2007</v>
       </c>
-      <c r="AU172" t="s">
+      <c r="AW172" t="s">
         <v>2006</v>
       </c>
-      <c r="AV172" t="s">
-        <v>2005</v>
-      </c>
-      <c r="AW172" t="s">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="173" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1290</v>
       </c>
@@ -17287,22 +17287,22 @@
         <v>1812</v>
       </c>
       <c r="E173" t="s">
+        <v>2005</v>
+      </c>
+      <c r="F173" t="s">
+        <v>2004</v>
+      </c>
+      <c r="H173" t="s">
         <v>2003</v>
       </c>
-      <c r="F173" t="s">
+      <c r="J173" t="s">
         <v>2002</v>
       </c>
-      <c r="H173" t="s">
+      <c r="L173" t="s">
         <v>2001</v>
       </c>
-      <c r="J173" t="s">
+      <c r="N173" t="s">
         <v>2000</v>
-      </c>
-      <c r="L173" t="s">
-        <v>1999</v>
-      </c>
-      <c r="N173" t="s">
-        <v>1998</v>
       </c>
       <c r="AA173">
         <v>2</v>
@@ -17317,19 +17317,19 @@
         <v>4</v>
       </c>
       <c r="AT173" t="s">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="AU173" t="s">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="AV173" t="s">
         <v>1290</v>
       </c>
       <c r="AW173" t="s">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="174" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="174" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1290</v>
       </c>
@@ -17344,37 +17344,37 @@
         <v>1812</v>
       </c>
       <c r="E174" t="s">
-        <v>2195</v>
+        <v>2197</v>
       </c>
       <c r="F174" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G174" t="s">
+        <v>1995</v>
+      </c>
+      <c r="H174" t="s">
         <v>1994</v>
       </c>
-      <c r="G174" t="s">
+      <c r="I174" t="s">
         <v>1993</v>
       </c>
-      <c r="H174" t="s">
+      <c r="J174" t="s">
         <v>1992</v>
       </c>
-      <c r="I174" t="s">
+      <c r="K174" t="s">
         <v>1991</v>
       </c>
-      <c r="J174" t="s">
+      <c r="L174" t="s">
         <v>1990</v>
       </c>
-      <c r="K174" t="s">
+      <c r="M174" t="s">
         <v>1989</v>
       </c>
-      <c r="L174" t="s">
+      <c r="N174" t="s">
         <v>1988</v>
       </c>
-      <c r="M174" t="s">
+      <c r="O174" t="s">
         <v>1987</v>
-      </c>
-      <c r="N174" t="s">
-        <v>1986</v>
-      </c>
-      <c r="O174" t="s">
-        <v>1985</v>
       </c>
       <c r="Z174">
         <v>3</v>
@@ -17407,16 +17407,16 @@
         <v>8</v>
       </c>
       <c r="AT174" t="s">
+        <v>1986</v>
+      </c>
+      <c r="AU174" t="s">
+        <v>1985</v>
+      </c>
+      <c r="AV174" t="s">
         <v>1984</v>
       </c>
-      <c r="AU174" t="s">
+      <c r="AW174" t="s">
         <v>1983</v>
-      </c>
-      <c r="AV174" t="s">
-        <v>1982</v>
-      </c>
-      <c r="AW174" t="s">
-        <v>1981</v>
       </c>
       <c r="AX174" t="s">
         <v>1305</v>
@@ -17431,13 +17431,13 @@
         <v>1303</v>
       </c>
       <c r="BB174" t="s">
-        <v>1980</v>
+        <v>1982</v>
       </c>
       <c r="BC174" t="s">
-        <v>1979</v>
-      </c>
-    </row>
-    <row r="175" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="175" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1571</v>
       </c>
@@ -17491,7 +17491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>1571</v>
       </c>
@@ -17521,7 +17521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1571</v>
       </c>
@@ -17578,7 +17578,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="178" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1571</v>
       </c>
@@ -17620,7 +17620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>1571</v>
       </c>
@@ -17650,7 +17650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>1571</v>
       </c>
@@ -17680,7 +17680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>1571</v>
       </c>
@@ -17710,7 +17710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1571</v>
       </c>
@@ -17740,7 +17740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>1571</v>
       </c>
@@ -17806,7 +17806,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="184" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>1571</v>
       </c>
@@ -17854,7 +17854,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="185" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>1571</v>
       </c>
@@ -17896,7 +17896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>1571</v>
       </c>
@@ -17926,7 +17926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>1571</v>
       </c>
@@ -17968,7 +17968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>1571</v>
       </c>
@@ -17998,7 +17998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1571</v>
       </c>
@@ -18106,7 +18106,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="190" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>1299</v>
       </c>
@@ -18169,7 +18169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>1299</v>
       </c>
@@ -18202,7 +18202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1299</v>
       </c>
@@ -18244,7 +18244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>1299</v>
       </c>
@@ -18295,7 +18295,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="194" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1299</v>
       </c>
@@ -18337,7 +18337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1299</v>
       </c>
@@ -18379,7 +18379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>1299</v>
       </c>
@@ -18409,7 +18409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>1299</v>
       </c>
@@ -18451,7 +18451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1299</v>
       </c>
@@ -18493,7 +18493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1299</v>
       </c>
@@ -18523,7 +18523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1299</v>
       </c>
@@ -18553,7 +18553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1299</v>
       </c>
@@ -18595,7 +18595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1299</v>
       </c>
@@ -18667,7 +18667,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="203" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>1299</v>
       </c>
@@ -18682,25 +18682,25 @@
         <v>1812</v>
       </c>
       <c r="E203" t="s">
+        <v>2476</v>
+      </c>
+      <c r="F203" t="s">
+        <v>2321</v>
+      </c>
+      <c r="H203" t="s">
+        <v>2475</v>
+      </c>
+      <c r="J203" t="s">
         <v>2474</v>
       </c>
-      <c r="F203" t="s">
-        <v>2319</v>
-      </c>
-      <c r="H203" t="s">
+      <c r="L203" t="s">
+        <v>1934</v>
+      </c>
+      <c r="N203" t="s">
         <v>2473</v>
       </c>
-      <c r="J203" t="s">
-        <v>2472</v>
-      </c>
-      <c r="L203" t="s">
+      <c r="P203" t="s">
         <v>1932</v>
-      </c>
-      <c r="N203" t="s">
-        <v>2471</v>
-      </c>
-      <c r="P203" t="s">
-        <v>1930</v>
       </c>
       <c r="AA203">
         <v>4</v>
@@ -18721,7 +18721,7 @@
         <v>566</v>
       </c>
       <c r="AU203" t="s">
-        <v>2470</v>
+        <v>2472</v>
       </c>
       <c r="AV203" t="s">
         <v>658</v>
@@ -18730,10 +18730,10 @@
         <v>565</v>
       </c>
       <c r="AX203" t="s">
-        <v>2469</v>
-      </c>
-    </row>
-    <row r="204" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="204" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1299</v>
       </c>
@@ -18748,37 +18748,37 @@
         <v>1812</v>
       </c>
       <c r="E204" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="F204" t="s">
+        <v>2470</v>
+      </c>
+      <c r="G204" t="s">
+        <v>2469</v>
+      </c>
+      <c r="H204" t="s">
         <v>2468</v>
       </c>
-      <c r="G204" t="s">
+      <c r="I204" t="s">
         <v>2467</v>
       </c>
-      <c r="H204" t="s">
+      <c r="J204" t="s">
         <v>2466</v>
       </c>
-      <c r="I204" t="s">
+      <c r="K204" t="s">
         <v>2465</v>
       </c>
-      <c r="J204" t="s">
+      <c r="L204" t="s">
         <v>2464</v>
       </c>
-      <c r="K204" t="s">
+      <c r="M204" t="s">
         <v>2463</v>
       </c>
-      <c r="L204" t="s">
+      <c r="N204" t="s">
         <v>2462</v>
       </c>
-      <c r="M204" t="s">
+      <c r="O204" t="s">
         <v>2461</v>
-      </c>
-      <c r="N204" t="s">
-        <v>2460</v>
-      </c>
-      <c r="O204" t="s">
-        <v>2459</v>
       </c>
       <c r="Z204">
         <v>3</v>
@@ -18814,10 +18814,10 @@
         <v>564</v>
       </c>
       <c r="AU204" t="s">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="AV204" t="s">
-        <v>2457</v>
+        <v>2459</v>
       </c>
       <c r="AW204" t="s">
         <v>560</v>
@@ -18829,19 +18829,19 @@
         <v>565</v>
       </c>
       <c r="AZ204" t="s">
+        <v>2458</v>
+      </c>
+      <c r="BA204" t="s">
+        <v>2457</v>
+      </c>
+      <c r="BB204" t="s">
         <v>2456</v>
       </c>
-      <c r="BA204" t="s">
+      <c r="BC204" t="s">
         <v>2455</v>
       </c>
-      <c r="BB204" t="s">
-        <v>2454</v>
-      </c>
-      <c r="BC204" t="s">
-        <v>2453</v>
-      </c>
-    </row>
-    <row r="205" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>1576</v>
       </c>
@@ -18883,7 +18883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>1576</v>
       </c>
@@ -18919,7 +18919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>1576</v>
       </c>
@@ -18997,7 +18997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>1576</v>
       </c>
@@ -19039,7 +19039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>1576</v>
       </c>
@@ -19081,7 +19081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>1576</v>
       </c>
@@ -19117,7 +19117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>1576</v>
       </c>
@@ -19153,7 +19153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>1576</v>
       </c>
@@ -19219,7 +19219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>1576</v>
       </c>
@@ -19285,7 +19285,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="214" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>1576</v>
       </c>
@@ -19339,7 +19339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>1576</v>
       </c>
@@ -19381,7 +19381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>1576</v>
       </c>
@@ -19417,7 +19417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>1576</v>
       </c>
@@ -19432,19 +19432,19 @@
         <v>1812</v>
       </c>
       <c r="E217" t="s">
+        <v>2109</v>
+      </c>
+      <c r="F217" t="s">
+        <v>2108</v>
+      </c>
+      <c r="H217" t="s">
         <v>2107</v>
       </c>
-      <c r="F217" t="s">
+      <c r="J217" t="s">
         <v>2106</v>
       </c>
-      <c r="H217" t="s">
-        <v>2105</v>
-      </c>
-      <c r="J217" t="s">
-        <v>2104</v>
-      </c>
       <c r="M217" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="AA217">
         <v>3</v>
@@ -19456,16 +19456,16 @@
         <v>2</v>
       </c>
       <c r="AT217" t="s">
+        <v>2105</v>
+      </c>
+      <c r="AU217" t="s">
+        <v>2104</v>
+      </c>
+      <c r="AV217" t="s">
         <v>2103</v>
       </c>
-      <c r="AU217" t="s">
-        <v>2102</v>
-      </c>
-      <c r="AV217" t="s">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="218" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>1576</v>
       </c>
@@ -19480,16 +19480,16 @@
         <v>1812</v>
       </c>
       <c r="E218" t="s">
+        <v>2102</v>
+      </c>
+      <c r="F218" t="s">
+        <v>2101</v>
+      </c>
+      <c r="H218" t="s">
         <v>2100</v>
       </c>
-      <c r="F218" t="s">
+      <c r="J218" t="s">
         <v>2099</v>
-      </c>
-      <c r="H218" t="s">
-        <v>2098</v>
-      </c>
-      <c r="J218" t="s">
-        <v>2097</v>
       </c>
       <c r="AA218">
         <v>2</v>
@@ -19498,13 +19498,13 @@
         <v>1</v>
       </c>
       <c r="AT218" t="s">
-        <v>2096</v>
+        <v>2098</v>
       </c>
       <c r="AU218" t="s">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="219" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="219" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1576</v>
       </c>
@@ -19522,34 +19522,34 @@
         <v>103</v>
       </c>
       <c r="F219" t="s">
+        <v>2096</v>
+      </c>
+      <c r="G219" t="s">
+        <v>2095</v>
+      </c>
+      <c r="H219" t="s">
         <v>2094</v>
       </c>
-      <c r="G219" t="s">
+      <c r="I219" t="s">
         <v>2093</v>
       </c>
-      <c r="H219" t="s">
+      <c r="J219" t="s">
         <v>2092</v>
       </c>
-      <c r="I219" t="s">
+      <c r="K219" t="s">
+        <v>1922</v>
+      </c>
+      <c r="L219" t="s">
         <v>2091</v>
-      </c>
-      <c r="J219" t="s">
-        <v>2090</v>
-      </c>
-      <c r="K219" t="s">
-        <v>1920</v>
-      </c>
-      <c r="L219" t="s">
-        <v>2089</v>
       </c>
       <c r="M219" t="s">
         <v>240</v>
       </c>
       <c r="N219" t="s">
-        <v>2088</v>
+        <v>2090</v>
       </c>
       <c r="O219" t="s">
-        <v>2087</v>
+        <v>2089</v>
       </c>
       <c r="Z219">
         <v>3</v>
@@ -19582,37 +19582,37 @@
         <v>2</v>
       </c>
       <c r="AT219" t="s">
+        <v>2088</v>
+      </c>
+      <c r="AU219" t="s">
+        <v>2087</v>
+      </c>
+      <c r="AV219" t="s">
         <v>2086</v>
       </c>
-      <c r="AU219" t="s">
+      <c r="AW219" t="s">
         <v>2085</v>
       </c>
-      <c r="AV219" t="s">
+      <c r="AX219" t="s">
         <v>2084</v>
       </c>
-      <c r="AW219" t="s">
+      <c r="AY219" t="s">
         <v>2083</v>
       </c>
-      <c r="AX219" t="s">
+      <c r="AZ219" t="s">
         <v>2082</v>
-      </c>
-      <c r="AY219" t="s">
-        <v>2081</v>
-      </c>
-      <c r="AZ219" t="s">
-        <v>2080</v>
       </c>
       <c r="BA219" t="s">
         <v>1061</v>
       </c>
       <c r="BB219" t="s">
-        <v>2079</v>
+        <v>2081</v>
       </c>
       <c r="BC219" t="s">
-        <v>2078</v>
-      </c>
-    </row>
-    <row r="220" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="220" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>1809</v>
       </c>
@@ -19654,7 +19654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>1809</v>
       </c>
@@ -19696,7 +19696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:81" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>1809</v>
       </c>
@@ -19798,7 +19798,7 @@
       <c r="CB222"/>
       <c r="CC222"/>
     </row>
-    <row r="223" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>1809</v>
       </c>
@@ -19828,7 +19828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:81" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:81" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>1809</v>
       </c>
@@ -19938,7 +19938,7 @@
       <c r="CB224"/>
       <c r="CC224"/>
     </row>
-    <row r="225" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>1809</v>
       </c>
@@ -19980,7 +19980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>1809</v>
       </c>
@@ -20022,7 +20022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>1809</v>
       </c>
@@ -20070,7 +20070,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="228" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>1809</v>
       </c>
@@ -20160,7 +20160,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="229" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>1809</v>
       </c>
@@ -20205,7 +20205,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="230" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>1809</v>
       </c>
@@ -20280,7 +20280,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="231" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>1809</v>
       </c>
@@ -20298,25 +20298,25 @@
         <v>721</v>
       </c>
       <c r="F231" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c r="G231" t="s">
         <v>425</v>
       </c>
       <c r="H231" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="I231" t="s">
         <v>425</v>
       </c>
       <c r="J231" t="s">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="K231" t="s">
         <v>425</v>
       </c>
       <c r="L231" t="s">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="AA231">
         <v>1</v>
@@ -20328,16 +20328,16 @@
         <v>2</v>
       </c>
       <c r="AT231" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="AU231" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="AV231" t="s">
-        <v>1834</v>
-      </c>
-    </row>
-    <row r="232" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="232" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>1809</v>
       </c>
@@ -20355,25 +20355,25 @@
         <v>727</v>
       </c>
       <c r="F232" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="G232" t="s">
         <v>425</v>
       </c>
       <c r="H232" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="I232" t="s">
         <v>425</v>
       </c>
       <c r="J232" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="K232" t="s">
         <v>425</v>
       </c>
       <c r="L232" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="AA232">
         <v>3</v>
@@ -20391,16 +20391,16 @@
         <v>2</v>
       </c>
       <c r="AT232" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="AU232" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="AV232" t="s">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="233" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="233" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>1809</v>
       </c>
@@ -20442,7 +20442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>1809</v>
       </c>
@@ -20460,31 +20460,31 @@
         <v>1168</v>
       </c>
       <c r="F234" t="s">
-        <v>1842</v>
+        <v>1844</v>
       </c>
       <c r="G234" t="s">
         <v>720</v>
       </c>
       <c r="H234" t="s">
-        <v>1843</v>
+        <v>1845</v>
       </c>
       <c r="I234" t="s">
-        <v>1844</v>
+        <v>1846</v>
       </c>
       <c r="J234" t="s">
-        <v>1845</v>
+        <v>1847</v>
       </c>
       <c r="K234" t="s">
-        <v>1846</v>
+        <v>1848</v>
       </c>
       <c r="L234" t="s">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="M234" t="s">
-        <v>1848</v>
+        <v>1850</v>
       </c>
       <c r="N234" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="O234" t="s">
         <v>712</v>
@@ -20520,37 +20520,37 @@
         <v>7</v>
       </c>
       <c r="AT234" t="s">
-        <v>1850</v>
+        <v>1852</v>
       </c>
       <c r="AU234" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="AV234" t="s">
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c r="AW234" t="s">
-        <v>1853</v>
+        <v>1855</v>
       </c>
       <c r="AX234" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
       <c r="AY234" t="s">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="AZ234" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="BA234" t="s">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c r="BB234" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="BC234" t="s">
-        <v>1859</v>
-      </c>
-    </row>
-    <row r="235" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="235" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>1809</v>
       </c>
@@ -20568,16 +20568,16 @@
         <v>721</v>
       </c>
       <c r="F235" t="s">
-        <v>1828</v>
+        <v>1830</v>
       </c>
       <c r="H235" t="s">
-        <v>1829</v>
+        <v>1831</v>
       </c>
       <c r="J235" t="s">
-        <v>1830</v>
+        <v>1832</v>
       </c>
       <c r="L235" t="s">
-        <v>1831</v>
+        <v>1833</v>
       </c>
       <c r="AA235">
         <v>1</v>
@@ -20589,16 +20589,16 @@
         <v>2</v>
       </c>
       <c r="AT235" t="s">
-        <v>1832</v>
+        <v>1834</v>
       </c>
       <c r="AU235" t="s">
-        <v>1833</v>
+        <v>1835</v>
       </c>
       <c r="AV235" t="s">
-        <v>1834</v>
-      </c>
-    </row>
-    <row r="236" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="236" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>1809</v>
       </c>
@@ -20616,16 +20616,16 @@
         <v>727</v>
       </c>
       <c r="F236" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="H236" t="s">
-        <v>1836</v>
+        <v>1838</v>
       </c>
       <c r="J236" t="s">
-        <v>1837</v>
+        <v>1839</v>
       </c>
       <c r="L236" t="s">
-        <v>1838</v>
+        <v>1840</v>
       </c>
       <c r="AA236">
         <v>3</v>
@@ -20637,16 +20637,16 @@
         <v>2</v>
       </c>
       <c r="AT236" t="s">
-        <v>1839</v>
+        <v>1841</v>
       </c>
       <c r="AU236" t="s">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="AV236" t="s">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="237" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="237" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>1809</v>
       </c>
@@ -20661,34 +20661,34 @@
         <v>1812</v>
       </c>
       <c r="E237" t="s">
-        <v>2347</v>
+        <v>2349</v>
       </c>
       <c r="F237" t="s">
-        <v>2346</v>
+        <v>2348</v>
       </c>
       <c r="G237" t="s">
         <v>720</v>
       </c>
       <c r="H237" t="s">
+        <v>2347</v>
+      </c>
+      <c r="I237" t="s">
+        <v>1846</v>
+      </c>
+      <c r="J237" t="s">
+        <v>1847</v>
+      </c>
+      <c r="K237" t="s">
+        <v>1848</v>
+      </c>
+      <c r="L237" t="s">
+        <v>2346</v>
+      </c>
+      <c r="M237" t="s">
         <v>2345</v>
       </c>
-      <c r="I237" t="s">
-        <v>1844</v>
-      </c>
-      <c r="J237" t="s">
-        <v>1845</v>
-      </c>
-      <c r="K237" t="s">
-        <v>1846</v>
-      </c>
-      <c r="L237" t="s">
-        <v>2344</v>
-      </c>
-      <c r="M237" t="s">
-        <v>2343</v>
-      </c>
       <c r="N237" t="s">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="O237" t="s">
         <v>712</v>
@@ -20724,37 +20724,37 @@
         <v>7</v>
       </c>
       <c r="AT237" t="s">
-        <v>2342</v>
+        <v>2344</v>
       </c>
       <c r="AU237" t="s">
-        <v>1851</v>
+        <v>1853</v>
       </c>
       <c r="AV237" t="s">
-        <v>1852</v>
+        <v>1854</v>
       </c>
       <c r="AW237" t="s">
-        <v>1853</v>
+        <v>1855</v>
       </c>
       <c r="AX237" t="s">
-        <v>1854</v>
+        <v>1856</v>
       </c>
       <c r="AY237" t="s">
-        <v>1855</v>
+        <v>1857</v>
       </c>
       <c r="AZ237" t="s">
-        <v>1856</v>
+        <v>1858</v>
       </c>
       <c r="BA237" t="s">
-        <v>1857</v>
+        <v>1859</v>
       </c>
       <c r="BB237" t="s">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="BC237" t="s">
-        <v>2341</v>
-      </c>
-    </row>
-    <row r="238" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="238" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>1578</v>
       </c>
@@ -20808,7 +20808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>1578</v>
       </c>
@@ -20838,7 +20838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>1578</v>
       </c>
@@ -20928,7 +20928,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="241" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>1578</v>
       </c>
@@ -20982,7 +20982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>1578</v>
       </c>
@@ -21012,7 +21012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:81" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:81" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>1578</v>
       </c>
@@ -21114,7 +21114,7 @@
       <c r="CB243"/>
       <c r="CC243"/>
     </row>
-    <row r="244" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>1578</v>
       </c>
@@ -21144,7 +21144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>1578</v>
       </c>
@@ -21174,7 +21174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>1578</v>
       </c>
@@ -21252,7 +21252,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="247" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>1578</v>
       </c>
@@ -21294,7 +21294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>1578</v>
       </c>
@@ -21324,7 +21324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>1578</v>
       </c>
@@ -21378,7 +21378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>1578</v>
       </c>
@@ -21408,7 +21408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>1578</v>
       </c>
@@ -21423,16 +21423,16 @@
         <v>1812</v>
       </c>
       <c r="E251" t="s">
+        <v>2322</v>
+      </c>
+      <c r="F251" t="s">
+        <v>2321</v>
+      </c>
+      <c r="H251" t="s">
         <v>2320</v>
       </c>
-      <c r="F251" t="s">
+      <c r="J251" t="s">
         <v>2319</v>
-      </c>
-      <c r="H251" t="s">
-        <v>2318</v>
-      </c>
-      <c r="J251" t="s">
-        <v>2317</v>
       </c>
       <c r="AA251">
         <v>1</v>
@@ -21447,7 +21447,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="252" spans="1:81" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>1578</v>
       </c>
@@ -21462,37 +21462,37 @@
         <v>1812</v>
       </c>
       <c r="E252" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="F252" t="s">
+        <v>2318</v>
+      </c>
+      <c r="G252" t="s">
+        <v>2317</v>
+      </c>
+      <c r="H252" t="s">
         <v>2316</v>
       </c>
-      <c r="G252" t="s">
+      <c r="I252" t="s">
         <v>2315</v>
       </c>
-      <c r="H252" t="s">
+      <c r="J252" t="s">
         <v>2314</v>
       </c>
-      <c r="I252" t="s">
+      <c r="K252" t="s">
         <v>2313</v>
       </c>
-      <c r="J252" t="s">
+      <c r="L252" t="s">
         <v>2312</v>
       </c>
-      <c r="K252" t="s">
+      <c r="M252" t="s">
         <v>2311</v>
       </c>
-      <c r="L252" t="s">
+      <c r="N252" t="s">
         <v>2310</v>
       </c>
-      <c r="M252" t="s">
+      <c r="O252" t="s">
         <v>2309</v>
-      </c>
-      <c r="N252" t="s">
-        <v>2308</v>
-      </c>
-      <c r="O252" t="s">
-        <v>2307</v>
       </c>
       <c r="Z252">
         <v>5</v>
@@ -21525,13 +21525,13 @@
         <v>8</v>
       </c>
       <c r="AT252" t="s">
-        <v>2306</v>
+        <v>2308</v>
       </c>
       <c r="AU252" t="s">
         <v>1376</v>
       </c>
       <c r="AV252" t="s">
-        <v>2305</v>
+        <v>2307</v>
       </c>
       <c r="AW252" t="s">
         <v>739</v>
@@ -21543,16 +21543,16 @@
         <v>626</v>
       </c>
       <c r="AZ252" t="s">
-        <v>2304</v>
+        <v>2306</v>
       </c>
       <c r="BA252" t="s">
         <v>621</v>
       </c>
       <c r="BB252" t="s">
-        <v>2303</v>
+        <v>2305</v>
       </c>
       <c r="BC252" t="s">
-        <v>2302</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="253" spans="1:81" x14ac:dyDescent="0.2">
@@ -21831,7 +21831,7 @@
         <v>1820</v>
       </c>
       <c r="F259">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="G259">
         <v>1256</v>
@@ -22065,13 +22065,13 @@
         <v>1823</v>
       </c>
       <c r="F264" t="s">
+        <v>1829</v>
+      </c>
+      <c r="G264" t="s">
+        <v>1828</v>
+      </c>
+      <c r="H264" t="s">
         <v>1827</v>
-      </c>
-      <c r="G264" t="s">
-        <v>2484</v>
-      </c>
-      <c r="H264" t="s">
-        <v>2483</v>
       </c>
       <c r="Z264">
         <v>1</v>
@@ -22110,25 +22110,25 @@
         <v>1189</v>
       </c>
       <c r="F265" t="s">
-        <v>1860</v>
+        <v>1862</v>
       </c>
       <c r="G265" t="s">
         <v>425</v>
       </c>
       <c r="H265" t="s">
-        <v>1861</v>
+        <v>1863</v>
       </c>
       <c r="I265" t="s">
         <v>425</v>
       </c>
       <c r="J265" t="s">
-        <v>1862</v>
+        <v>1864</v>
       </c>
       <c r="K265" t="s">
         <v>425</v>
       </c>
       <c r="L265" t="s">
-        <v>1863</v>
+        <v>1865</v>
       </c>
       <c r="M265" t="s">
         <v>425</v>
@@ -22146,16 +22146,16 @@
         <v>2</v>
       </c>
       <c r="AT265" t="s">
-        <v>1864</v>
+        <v>1866</v>
       </c>
       <c r="AU265" t="s">
-        <v>1865</v>
+        <v>1867</v>
       </c>
       <c r="AV265" t="s">
-        <v>1866</v>
+        <v>1868</v>
       </c>
       <c r="AW265" t="s">
-        <v>1867</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="266" spans="1:55" x14ac:dyDescent="0.2">
@@ -22302,7 +22302,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="268" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>1573</v>
       </c>
@@ -22344,7 +22344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>1573</v>
       </c>
@@ -22380,7 +22380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>1573</v>
       </c>
@@ -22422,7 +22422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>1573</v>
       </c>
@@ -22464,7 +22464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>1573</v>
       </c>
@@ -22524,7 +22524,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="273" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>1573</v>
       </c>
@@ -22572,7 +22572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>1573</v>
       </c>
@@ -22614,7 +22614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>1573</v>
       </c>
@@ -22650,7 +22650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>1573</v>
       </c>
@@ -22692,7 +22692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>1573</v>
       </c>
@@ -22707,19 +22707,19 @@
         <v>1812</v>
       </c>
       <c r="E277" t="s">
+        <v>2395</v>
+      </c>
+      <c r="F277" t="s">
+        <v>2394</v>
+      </c>
+      <c r="H277" t="s">
         <v>2393</v>
       </c>
-      <c r="F277" t="s">
+      <c r="J277" t="s">
         <v>2392</v>
       </c>
-      <c r="H277" t="s">
-        <v>2391</v>
-      </c>
-      <c r="J277" t="s">
-        <v>2390</v>
-      </c>
       <c r="L277" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="AA277">
         <v>3</v>
@@ -22731,16 +22731,16 @@
         <v>2</v>
       </c>
       <c r="AT277" t="s">
+        <v>2391</v>
+      </c>
+      <c r="AU277" t="s">
+        <v>2390</v>
+      </c>
+      <c r="AV277" t="s">
         <v>2389</v>
       </c>
-      <c r="AU277" t="s">
-        <v>2388</v>
-      </c>
-      <c r="AV277" t="s">
-        <v>2387</v>
-      </c>
-    </row>
-    <row r="278" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="278" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>1573</v>
       </c>
@@ -22755,19 +22755,19 @@
         <v>1812</v>
       </c>
       <c r="E278" t="s">
+        <v>2388</v>
+      </c>
+      <c r="F278" t="s">
+        <v>2387</v>
+      </c>
+      <c r="H278" t="s">
         <v>2386</v>
       </c>
-      <c r="F278" t="s">
+      <c r="J278" t="s">
         <v>2385</v>
       </c>
-      <c r="H278" t="s">
-        <v>2384</v>
-      </c>
-      <c r="J278" t="s">
-        <v>2383</v>
-      </c>
       <c r="L278" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="AA278">
         <v>2</v>
@@ -22779,16 +22779,16 @@
         <v>3</v>
       </c>
       <c r="AT278" t="s">
+        <v>2384</v>
+      </c>
+      <c r="AU278" t="s">
+        <v>2383</v>
+      </c>
+      <c r="AV278" t="s">
         <v>2382</v>
       </c>
-      <c r="AU278" t="s">
-        <v>2381</v>
-      </c>
-      <c r="AV278" t="s">
-        <v>2380</v>
-      </c>
-    </row>
-    <row r="279" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="279" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>1573</v>
       </c>
@@ -22803,19 +22803,19 @@
         <v>1812</v>
       </c>
       <c r="E279" t="s">
+        <v>2381</v>
+      </c>
+      <c r="F279" t="s">
+        <v>2380</v>
+      </c>
+      <c r="H279" t="s">
         <v>2379</v>
       </c>
-      <c r="F279" t="s">
+      <c r="J279" t="s">
         <v>2378</v>
       </c>
-      <c r="H279" t="s">
+      <c r="L279" t="s">
         <v>2377</v>
-      </c>
-      <c r="J279" t="s">
-        <v>2376</v>
-      </c>
-      <c r="L279" t="s">
-        <v>2375</v>
       </c>
       <c r="AA279">
         <v>3</v>
@@ -22827,16 +22827,16 @@
         <v>2</v>
       </c>
       <c r="AT279" t="s">
+        <v>2376</v>
+      </c>
+      <c r="AU279" t="s">
+        <v>2375</v>
+      </c>
+      <c r="AV279" t="s">
         <v>2374</v>
       </c>
-      <c r="AU279" t="s">
-        <v>2373</v>
-      </c>
-      <c r="AV279" t="s">
-        <v>2372</v>
-      </c>
-    </row>
-    <row r="280" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="280" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1573</v>
       </c>
@@ -22851,19 +22851,19 @@
         <v>1812</v>
       </c>
       <c r="E280" t="s">
+        <v>2373</v>
+      </c>
+      <c r="F280" t="s">
+        <v>2372</v>
+      </c>
+      <c r="H280" t="s">
         <v>2371</v>
       </c>
-      <c r="F280" t="s">
+      <c r="J280" t="s">
         <v>2370</v>
       </c>
-      <c r="H280" t="s">
+      <c r="L280" t="s">
         <v>2369</v>
-      </c>
-      <c r="J280" t="s">
-        <v>2368</v>
-      </c>
-      <c r="L280" t="s">
-        <v>2367</v>
       </c>
       <c r="AA280">
         <v>2</v>
@@ -22875,16 +22875,16 @@
         <v>1</v>
       </c>
       <c r="AT280" t="s">
-        <v>2366</v>
+        <v>2368</v>
       </c>
       <c r="AU280" t="s">
         <v>1770</v>
       </c>
       <c r="AV280" t="s">
-        <v>2365</v>
-      </c>
-    </row>
-    <row r="281" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="281" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1573</v>
       </c>
@@ -22899,37 +22899,37 @@
         <v>1812</v>
       </c>
       <c r="E281" t="s">
-        <v>2201</v>
+        <v>2203</v>
       </c>
       <c r="F281" t="s">
+        <v>2366</v>
+      </c>
+      <c r="G281" t="s">
+        <v>2365</v>
+      </c>
+      <c r="H281" t="s">
         <v>2364</v>
       </c>
-      <c r="G281" t="s">
+      <c r="I281" t="s">
         <v>2363</v>
       </c>
-      <c r="H281" t="s">
+      <c r="J281" t="s">
         <v>2362</v>
       </c>
-      <c r="I281" t="s">
+      <c r="K281" t="s">
         <v>2361</v>
       </c>
-      <c r="J281" t="s">
+      <c r="L281" t="s">
         <v>2360</v>
       </c>
-      <c r="K281" t="s">
+      <c r="M281" t="s">
         <v>2359</v>
       </c>
-      <c r="L281" t="s">
+      <c r="N281" t="s">
         <v>2358</v>
       </c>
-      <c r="M281" t="s">
+      <c r="O281" t="s">
         <v>2357</v>
-      </c>
-      <c r="N281" t="s">
-        <v>2356</v>
-      </c>
-      <c r="O281" t="s">
-        <v>2355</v>
       </c>
       <c r="Z281">
         <v>3</v>
@@ -22962,25 +22962,25 @@
         <v>1</v>
       </c>
       <c r="AT281" t="s">
-        <v>2354</v>
+        <v>2356</v>
       </c>
       <c r="AU281" t="s">
-        <v>2353</v>
+        <v>2355</v>
       </c>
       <c r="AV281" t="s">
         <v>656</v>
       </c>
       <c r="AW281" t="s">
+        <v>2354</v>
+      </c>
+      <c r="AX281" t="s">
+        <v>2353</v>
+      </c>
+      <c r="AY281" t="s">
         <v>2352</v>
       </c>
-      <c r="AX281" t="s">
+      <c r="AZ281" t="s">
         <v>2351</v>
-      </c>
-      <c r="AY281" t="s">
-        <v>2350</v>
-      </c>
-      <c r="AZ281" t="s">
-        <v>2349</v>
       </c>
       <c r="BA281" t="s">
         <v>667</v>
@@ -22989,10 +22989,10 @@
         <v>652</v>
       </c>
       <c r="BC281" t="s">
-        <v>2348</v>
-      </c>
-    </row>
-    <row r="282" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="282" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>415</v>
       </c>
@@ -23058,7 +23058,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="283" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>415</v>
       </c>
@@ -23127,7 +23127,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="284" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>415</v>
       </c>
@@ -23181,7 +23181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>415</v>
       </c>
@@ -23229,7 +23229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>415</v>
       </c>
@@ -23292,7 +23292,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="287" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>415</v>
       </c>
@@ -23340,7 +23340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>415</v>
       </c>
@@ -23403,7 +23403,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="289" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>415</v>
       </c>
@@ -23451,7 +23451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>415</v>
       </c>
@@ -23511,7 +23511,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="291" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>415</v>
       </c>
@@ -23547,7 +23547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>415</v>
       </c>
@@ -23592,7 +23592,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="293" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>415</v>
       </c>
@@ -23646,7 +23646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>415</v>
       </c>
@@ -23703,7 +23703,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="295" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>415</v>
       </c>
@@ -23739,7 +23739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>415</v>
       </c>
@@ -23847,7 +23847,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="297" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>1570</v>
       </c>
@@ -23889,7 +23889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>1570</v>
       </c>
@@ -23931,7 +23931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>1570</v>
       </c>
@@ -23991,7 +23991,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="300" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>1570</v>
       </c>
@@ -24033,7 +24033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>1570</v>
       </c>
@@ -24069,7 +24069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>1570</v>
       </c>
@@ -24105,7 +24105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>1570</v>
       </c>
@@ -24147,7 +24147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>1570</v>
       </c>
@@ -24195,7 +24195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>1570</v>
       </c>
@@ -24258,7 +24258,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="306" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>1570</v>
       </c>
@@ -24324,7 +24324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>1570</v>
       </c>
@@ -24378,7 +24378,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="308" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>1570</v>
       </c>
@@ -24414,7 +24414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>1570</v>
       </c>
@@ -24450,7 +24450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>1570</v>
       </c>
@@ -24492,7 +24492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>1570</v>
       </c>
@@ -24600,7 +24600,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="312" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1577</v>
       </c>
@@ -24636,7 +24636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>1577</v>
       </c>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>1577</v>
       </c>
@@ -24708,7 +24708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1577</v>
       </c>
@@ -24738,7 +24738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>1577</v>
       </c>
@@ -24807,7 +24807,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="317" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>1577</v>
       </c>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>1577</v>
       </c>
@@ -24879,7 +24879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>1577</v>
       </c>
@@ -24909,7 +24909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>1577</v>
       </c>
@@ -24954,7 +24954,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="321" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>1577</v>
       </c>
@@ -24984,7 +24984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>1577</v>
       </c>
@@ -25014,7 +25014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>1577</v>
       </c>
@@ -25029,22 +25029,22 @@
         <v>1812</v>
       </c>
       <c r="E323" t="s">
-        <v>2196</v>
+        <v>2198</v>
       </c>
       <c r="F323" t="s">
+        <v>2144</v>
+      </c>
+      <c r="H323" t="s">
+        <v>2143</v>
+      </c>
+      <c r="J323" t="s">
         <v>2142</v>
       </c>
-      <c r="H323" t="s">
+      <c r="L323" t="s">
         <v>2141</v>
       </c>
-      <c r="J323" t="s">
+      <c r="N323" t="s">
         <v>2140</v>
-      </c>
-      <c r="L323" t="s">
-        <v>2139</v>
-      </c>
-      <c r="N323" t="s">
-        <v>2138</v>
       </c>
       <c r="AA323">
         <v>3</v>
@@ -25059,19 +25059,19 @@
         <v>2</v>
       </c>
       <c r="AT323" t="s">
+        <v>2139</v>
+      </c>
+      <c r="AU323" t="s">
+        <v>2138</v>
+      </c>
+      <c r="AV323" t="s">
         <v>2137</v>
       </c>
-      <c r="AU323" t="s">
+      <c r="AW323" t="s">
         <v>2136</v>
       </c>
-      <c r="AV323" t="s">
-        <v>2135</v>
-      </c>
-      <c r="AW323" t="s">
-        <v>2134</v>
-      </c>
-    </row>
-    <row r="324" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="324" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>1577</v>
       </c>
@@ -25086,16 +25086,16 @@
         <v>1812</v>
       </c>
       <c r="E324" t="s">
-        <v>2196</v>
+        <v>2198</v>
       </c>
       <c r="F324" t="s">
+        <v>2135</v>
+      </c>
+      <c r="H324" t="s">
+        <v>2134</v>
+      </c>
+      <c r="K324" t="s">
         <v>2133</v>
-      </c>
-      <c r="H324" t="s">
-        <v>2132</v>
-      </c>
-      <c r="K324" t="s">
-        <v>2131</v>
       </c>
       <c r="AA324">
         <v>3</v>
@@ -25107,16 +25107,16 @@
         <v>1</v>
       </c>
       <c r="AT324" t="s">
+        <v>2132</v>
+      </c>
+      <c r="AU324" t="s">
+        <v>2131</v>
+      </c>
+      <c r="AV324" t="s">
         <v>2130</v>
       </c>
-      <c r="AU324" t="s">
-        <v>2129</v>
-      </c>
-      <c r="AV324" t="s">
-        <v>2128</v>
-      </c>
-    </row>
-    <row r="325" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="325" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>1577</v>
       </c>
@@ -25131,37 +25131,37 @@
         <v>1812</v>
       </c>
       <c r="E325" t="s">
-        <v>1978</v>
+        <v>1980</v>
       </c>
       <c r="F325" t="s">
+        <v>2129</v>
+      </c>
+      <c r="G325" t="s">
+        <v>2128</v>
+      </c>
+      <c r="H325" t="s">
         <v>2127</v>
       </c>
-      <c r="G325" t="s">
+      <c r="I325" t="s">
         <v>2126</v>
       </c>
-      <c r="H325" t="s">
+      <c r="J325" t="s">
         <v>2125</v>
       </c>
-      <c r="I325" t="s">
+      <c r="K325" t="s">
         <v>2124</v>
       </c>
-      <c r="J325" t="s">
+      <c r="L325" t="s">
         <v>2123</v>
       </c>
-      <c r="K325" t="s">
+      <c r="M325" t="s">
         <v>2122</v>
       </c>
-      <c r="L325" t="s">
+      <c r="N325" t="s">
         <v>2121</v>
       </c>
-      <c r="M325" t="s">
+      <c r="O325" t="s">
         <v>2120</v>
-      </c>
-      <c r="N325" t="s">
-        <v>2119</v>
-      </c>
-      <c r="O325" t="s">
-        <v>2118</v>
       </c>
       <c r="Z325">
         <v>3</v>
@@ -25194,37 +25194,37 @@
         <v>4</v>
       </c>
       <c r="AT325" t="s">
+        <v>2119</v>
+      </c>
+      <c r="AU325" t="s">
+        <v>2118</v>
+      </c>
+      <c r="AV325" t="s">
         <v>2117</v>
       </c>
-      <c r="AU325" t="s">
+      <c r="AW325" t="s">
         <v>2116</v>
       </c>
-      <c r="AV325" t="s">
+      <c r="AX325" t="s">
         <v>2115</v>
       </c>
-      <c r="AW325" t="s">
+      <c r="AY325" t="s">
         <v>2114</v>
       </c>
-      <c r="AX325" t="s">
+      <c r="AZ325" t="s">
         <v>2113</v>
       </c>
-      <c r="AY325" t="s">
+      <c r="BA325" t="s">
         <v>2112</v>
       </c>
-      <c r="AZ325" t="s">
+      <c r="BB325" t="s">
         <v>2111</v>
       </c>
-      <c r="BA325" t="s">
+      <c r="BC325" t="s">
         <v>2110</v>
       </c>
-      <c r="BB325" t="s">
-        <v>2109</v>
-      </c>
-      <c r="BC325" t="s">
-        <v>2108</v>
-      </c>
-    </row>
-    <row r="326" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="326" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>1580</v>
       </c>
@@ -25272,7 +25272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>1580</v>
       </c>
@@ -25317,7 +25317,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="328" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>1580</v>
       </c>
@@ -25365,7 +25365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>1580</v>
       </c>
@@ -25401,7 +25401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>1580</v>
       </c>
@@ -25437,7 +25437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>1580</v>
       </c>
@@ -25491,7 +25491,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="332" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>1580</v>
       </c>
@@ -25539,7 +25539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>1580</v>
       </c>
@@ -25587,7 +25587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>1580</v>
       </c>
@@ -25635,7 +25635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>1580</v>
       </c>
@@ -25677,7 +25677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>1580</v>
       </c>
@@ -25692,16 +25692,16 @@
         <v>1812</v>
       </c>
       <c r="E336" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F336" t="s">
+        <v>2246</v>
+      </c>
+      <c r="H336" t="s">
         <v>2245</v>
       </c>
-      <c r="F336" t="s">
+      <c r="J336" t="s">
         <v>2244</v>
-      </c>
-      <c r="H336" t="s">
-        <v>2243</v>
-      </c>
-      <c r="J336" t="s">
-        <v>2242</v>
       </c>
       <c r="AA336">
         <v>2</v>
@@ -25710,13 +25710,13 @@
         <v>1</v>
       </c>
       <c r="AT336" t="s">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="AU336" t="s">
-        <v>2240</v>
-      </c>
-    </row>
-    <row r="337" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="337" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>1580</v>
       </c>
@@ -25731,22 +25731,22 @@
         <v>1812</v>
       </c>
       <c r="E337" t="s">
+        <v>2241</v>
+      </c>
+      <c r="F337" t="s">
+        <v>2240</v>
+      </c>
+      <c r="H337" t="s">
         <v>2239</v>
       </c>
-      <c r="F337" t="s">
+      <c r="J337" t="s">
         <v>2238</v>
       </c>
-      <c r="H337" t="s">
+      <c r="L337" t="s">
         <v>2237</v>
       </c>
-      <c r="J337" t="s">
+      <c r="N337" t="s">
         <v>2236</v>
-      </c>
-      <c r="L337" t="s">
-        <v>2235</v>
-      </c>
-      <c r="N337" t="s">
-        <v>2234</v>
       </c>
       <c r="AA337">
         <v>3</v>
@@ -25761,19 +25761,19 @@
         <v>1</v>
       </c>
       <c r="AT337" t="s">
+        <v>2235</v>
+      </c>
+      <c r="AU337" t="s">
+        <v>2234</v>
+      </c>
+      <c r="AV337" t="s">
         <v>2233</v>
       </c>
-      <c r="AU337" t="s">
+      <c r="AW337" t="s">
         <v>2232</v>
       </c>
-      <c r="AV337" t="s">
-        <v>2231</v>
-      </c>
-      <c r="AW337" t="s">
-        <v>2230</v>
-      </c>
-    </row>
-    <row r="338" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="338" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>1580</v>
       </c>
@@ -25788,22 +25788,22 @@
         <v>1812</v>
       </c>
       <c r="E338" t="s">
+        <v>2231</v>
+      </c>
+      <c r="F338" t="s">
+        <v>2230</v>
+      </c>
+      <c r="H338" t="s">
         <v>2229</v>
       </c>
-      <c r="F338" t="s">
+      <c r="J338" t="s">
         <v>2228</v>
       </c>
-      <c r="H338" t="s">
+      <c r="L338" t="s">
         <v>2227</v>
       </c>
-      <c r="J338" t="s">
+      <c r="N338" t="s">
         <v>2226</v>
-      </c>
-      <c r="L338" t="s">
-        <v>2225</v>
-      </c>
-      <c r="N338" t="s">
-        <v>2224</v>
       </c>
       <c r="AA338">
         <v>3</v>
@@ -25818,19 +25818,19 @@
         <v>4</v>
       </c>
       <c r="AT338" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AU338" t="s">
+        <v>2224</v>
+      </c>
+      <c r="AV338" t="s">
         <v>2223</v>
       </c>
-      <c r="AU338" t="s">
+      <c r="AW338" t="s">
         <v>2222</v>
       </c>
-      <c r="AV338" t="s">
-        <v>2221</v>
-      </c>
-      <c r="AW338" t="s">
-        <v>2220</v>
-      </c>
-    </row>
-    <row r="339" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="339" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>1580</v>
       </c>
@@ -25845,37 +25845,37 @@
         <v>1812</v>
       </c>
       <c r="E339" t="s">
+        <v>2221</v>
+      </c>
+      <c r="F339" t="s">
+        <v>2220</v>
+      </c>
+      <c r="G339" t="s">
         <v>2219</v>
       </c>
-      <c r="F339" t="s">
+      <c r="H339" t="s">
         <v>2218</v>
       </c>
-      <c r="G339" t="s">
+      <c r="I339" t="s">
         <v>2217</v>
       </c>
-      <c r="H339" t="s">
+      <c r="J339" t="s">
         <v>2216</v>
       </c>
-      <c r="I339" t="s">
+      <c r="K339" t="s">
         <v>2215</v>
       </c>
-      <c r="J339" t="s">
+      <c r="L339" t="s">
         <v>2214</v>
       </c>
-      <c r="K339" t="s">
+      <c r="M339" t="s">
         <v>2213</v>
       </c>
-      <c r="L339" t="s">
+      <c r="N339" t="s">
         <v>2212</v>
       </c>
-      <c r="M339" t="s">
+      <c r="O339" t="s">
         <v>2211</v>
-      </c>
-      <c r="N339" t="s">
-        <v>2210</v>
-      </c>
-      <c r="O339" t="s">
-        <v>2209</v>
       </c>
       <c r="Z339">
         <v>5</v>
@@ -25908,19 +25908,19 @@
         <v>8</v>
       </c>
       <c r="AT339" t="s">
+        <v>2210</v>
+      </c>
+      <c r="AU339" t="s">
+        <v>2209</v>
+      </c>
+      <c r="AV339" t="s">
         <v>2208</v>
       </c>
-      <c r="AU339" t="s">
+      <c r="AW339" t="s">
         <v>2207</v>
       </c>
-      <c r="AV339" t="s">
+      <c r="AX339" t="s">
         <v>2206</v>
-      </c>
-      <c r="AW339" t="s">
-        <v>2205</v>
-      </c>
-      <c r="AX339" t="s">
-        <v>2204</v>
       </c>
       <c r="AY339" t="s">
         <v>1520</v>
@@ -25932,13 +25932,13 @@
         <v>1506</v>
       </c>
       <c r="BB339" t="s">
-        <v>2203</v>
+        <v>2205</v>
       </c>
       <c r="BC339" t="s">
-        <v>2202</v>
-      </c>
-    </row>
-    <row r="340" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="340" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>1579</v>
       </c>
@@ -25974,7 +25974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>1579</v>
       </c>
@@ -26019,7 +26019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>1579</v>
       </c>
@@ -26055,7 +26055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>1579</v>
       </c>
@@ -26097,7 +26097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>1579</v>
       </c>
@@ -26145,7 +26145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>1579</v>
       </c>
@@ -26181,7 +26181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>1579</v>
       </c>
@@ -26217,7 +26217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>1579</v>
       </c>
@@ -26271,7 +26271,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="348" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>1579</v>
       </c>
@@ -26307,7 +26307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>1579</v>
       </c>
@@ -26361,7 +26361,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="350" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>1579</v>
       </c>
@@ -26376,22 +26376,22 @@
         <v>1812</v>
       </c>
       <c r="E350" t="s">
+        <v>2303</v>
+      </c>
+      <c r="F350" t="s">
+        <v>2302</v>
+      </c>
+      <c r="H350" t="s">
         <v>2301</v>
       </c>
-      <c r="F350" t="s">
+      <c r="J350" t="s">
         <v>2300</v>
       </c>
-      <c r="H350" t="s">
+      <c r="L350" t="s">
         <v>2299</v>
       </c>
-      <c r="J350" t="s">
+      <c r="N350" t="s">
         <v>2298</v>
-      </c>
-      <c r="L350" t="s">
-        <v>2297</v>
-      </c>
-      <c r="N350" t="s">
-        <v>2296</v>
       </c>
       <c r="AA350">
         <v>3</v>
@@ -26406,19 +26406,19 @@
         <v>2</v>
       </c>
       <c r="AT350" t="s">
+        <v>2297</v>
+      </c>
+      <c r="AU350" t="s">
+        <v>2296</v>
+      </c>
+      <c r="AV350" t="s">
         <v>2295</v>
       </c>
-      <c r="AU350" t="s">
+      <c r="AW350" t="s">
         <v>2294</v>
       </c>
-      <c r="AV350" t="s">
-        <v>2293</v>
-      </c>
-      <c r="AW350" t="s">
-        <v>2292</v>
-      </c>
-    </row>
-    <row r="351" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="351" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>1579</v>
       </c>
@@ -26433,22 +26433,22 @@
         <v>1812</v>
       </c>
       <c r="E351" t="s">
+        <v>2293</v>
+      </c>
+      <c r="F351" t="s">
+        <v>2292</v>
+      </c>
+      <c r="H351" t="s">
         <v>2291</v>
       </c>
-      <c r="F351" t="s">
+      <c r="J351" t="s">
         <v>2290</v>
       </c>
-      <c r="H351" t="s">
+      <c r="L351" t="s">
         <v>2289</v>
       </c>
-      <c r="J351" t="s">
+      <c r="N351" t="s">
         <v>2288</v>
-      </c>
-      <c r="L351" t="s">
-        <v>2287</v>
-      </c>
-      <c r="N351" t="s">
-        <v>2286</v>
       </c>
       <c r="AA351">
         <v>2</v>
@@ -26463,19 +26463,19 @@
         <v>4</v>
       </c>
       <c r="AT351" t="s">
+        <v>2287</v>
+      </c>
+      <c r="AU351" t="s">
+        <v>2286</v>
+      </c>
+      <c r="AV351" t="s">
         <v>2285</v>
       </c>
-      <c r="AU351" t="s">
+      <c r="AW351" t="s">
         <v>2284</v>
       </c>
-      <c r="AV351" t="s">
-        <v>2283</v>
-      </c>
-      <c r="AW351" t="s">
-        <v>2282</v>
-      </c>
-    </row>
-    <row r="352" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="352" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1579</v>
       </c>
@@ -26490,16 +26490,16 @@
         <v>1812</v>
       </c>
       <c r="E352" t="s">
+        <v>2283</v>
+      </c>
+      <c r="F352" t="s">
+        <v>2282</v>
+      </c>
+      <c r="H352" t="s">
         <v>2281</v>
       </c>
-      <c r="F352" t="s">
+      <c r="J352" t="s">
         <v>2280</v>
-      </c>
-      <c r="H352" t="s">
-        <v>2279</v>
-      </c>
-      <c r="J352" t="s">
-        <v>2278</v>
       </c>
       <c r="AA352">
         <v>2</v>
@@ -26508,13 +26508,13 @@
         <v>1</v>
       </c>
       <c r="AT352" t="s">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c r="AU352" t="s">
-        <v>2276</v>
-      </c>
-    </row>
-    <row r="353" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="353" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>1579</v>
       </c>
@@ -26529,22 +26529,22 @@
         <v>1812</v>
       </c>
       <c r="E353" t="s">
+        <v>2277</v>
+      </c>
+      <c r="F353" t="s">
+        <v>2276</v>
+      </c>
+      <c r="H353" t="s">
         <v>2275</v>
       </c>
-      <c r="F353" t="s">
+      <c r="J353" t="s">
         <v>2274</v>
       </c>
-      <c r="H353" t="s">
+      <c r="L353" t="s">
         <v>2273</v>
       </c>
-      <c r="J353" t="s">
+      <c r="N353" t="s">
         <v>2272</v>
-      </c>
-      <c r="L353" t="s">
-        <v>2271</v>
-      </c>
-      <c r="N353" t="s">
-        <v>2270</v>
       </c>
       <c r="AA353">
         <v>3</v>
@@ -26559,19 +26559,19 @@
         <v>1</v>
       </c>
       <c r="AT353" t="s">
+        <v>2271</v>
+      </c>
+      <c r="AU353" t="s">
+        <v>2270</v>
+      </c>
+      <c r="AV353" t="s">
         <v>2269</v>
       </c>
-      <c r="AU353" t="s">
+      <c r="AW353" t="s">
         <v>2268</v>
       </c>
-      <c r="AV353" t="s">
-        <v>2267</v>
-      </c>
-      <c r="AW353" t="s">
-        <v>2266</v>
-      </c>
-    </row>
-    <row r="354" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="354" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>1579</v>
       </c>
@@ -26586,37 +26586,37 @@
         <v>1812</v>
       </c>
       <c r="E354" t="s">
-        <v>2219</v>
+        <v>2221</v>
       </c>
       <c r="F354" t="s">
+        <v>2267</v>
+      </c>
+      <c r="G354" t="s">
+        <v>2266</v>
+      </c>
+      <c r="H354" t="s">
         <v>2265</v>
       </c>
-      <c r="G354" t="s">
+      <c r="I354" t="s">
         <v>2264</v>
       </c>
-      <c r="H354" t="s">
+      <c r="J354" t="s">
         <v>2263</v>
       </c>
-      <c r="I354" t="s">
+      <c r="K354" t="s">
         <v>2262</v>
       </c>
-      <c r="J354" t="s">
+      <c r="L354" t="s">
         <v>2261</v>
       </c>
-      <c r="K354" t="s">
+      <c r="M354" t="s">
         <v>2260</v>
       </c>
-      <c r="L354" t="s">
+      <c r="N354" t="s">
         <v>2259</v>
       </c>
-      <c r="M354" t="s">
+      <c r="O354" t="s">
         <v>2258</v>
-      </c>
-      <c r="N354" t="s">
-        <v>2257</v>
-      </c>
-      <c r="O354" t="s">
-        <v>2256</v>
       </c>
       <c r="Z354">
         <v>2</v>
@@ -26649,37 +26649,37 @@
         <v>8</v>
       </c>
       <c r="AT354" t="s">
+        <v>2257</v>
+      </c>
+      <c r="AU354" t="s">
+        <v>2256</v>
+      </c>
+      <c r="AV354" t="s">
         <v>2255</v>
       </c>
-      <c r="AU354" t="s">
+      <c r="AW354" t="s">
         <v>2254</v>
       </c>
-      <c r="AV354" t="s">
+      <c r="AX354" t="s">
         <v>2253</v>
       </c>
-      <c r="AW354" t="s">
+      <c r="AY354" t="s">
         <v>2252</v>
       </c>
-      <c r="AX354" t="s">
+      <c r="AZ354" t="s">
         <v>2251</v>
       </c>
-      <c r="AY354" t="s">
+      <c r="BA354" t="s">
         <v>2250</v>
       </c>
-      <c r="AZ354" t="s">
+      <c r="BB354" t="s">
         <v>2249</v>
       </c>
-      <c r="BA354" t="s">
+      <c r="BC354" t="s">
         <v>2248</v>
       </c>
-      <c r="BB354" t="s">
-        <v>2247</v>
-      </c>
-      <c r="BC354" t="s">
-        <v>2246</v>
-      </c>
-    </row>
-    <row r="355" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="355" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>326</v>
       </c>
@@ -26733,7 +26733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>326</v>
       </c>
@@ -26769,7 +26769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>326</v>
       </c>
@@ -26811,7 +26811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>326</v>
       </c>
@@ -26847,7 +26847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>326</v>
       </c>
@@ -26889,7 +26889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>326</v>
       </c>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>326</v>
       </c>
@@ -26973,7 +26973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>326</v>
       </c>
@@ -27009,7 +27009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>326</v>
       </c>
@@ -27087,7 +27087,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="364" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>326</v>
       </c>
@@ -27135,7 +27135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>326</v>
       </c>
@@ -27183,7 +27183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>326</v>
       </c>
@@ -27225,37 +27225,37 @@
         <v>0</v>
       </c>
       <c r="BD366" t="s">
-        <v>1949</v>
+        <v>1951</v>
       </c>
       <c r="BE366" t="s">
-        <v>1948</v>
+        <v>1950</v>
       </c>
       <c r="BF366" t="s">
         <v>420</v>
       </c>
       <c r="BG366" t="s">
+        <v>1949</v>
+      </c>
+      <c r="BH366" t="s">
+        <v>1948</v>
+      </c>
+      <c r="BI366" t="s">
         <v>1947</v>
       </c>
-      <c r="BH366" t="s">
+      <c r="BJ366" t="s">
         <v>1946</v>
       </c>
-      <c r="BI366" t="s">
+      <c r="BK366" t="s">
         <v>1945</v>
       </c>
-      <c r="BJ366" t="s">
+      <c r="BL366" t="s">
         <v>1944</v>
       </c>
-      <c r="BK366" t="s">
+      <c r="BM366" t="s">
         <v>1943</v>
       </c>
-      <c r="BL366" t="s">
-        <v>1942</v>
-      </c>
-      <c r="BM366" t="s">
-        <v>1941</v>
-      </c>
-    </row>
-    <row r="367" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="367" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>326</v>
       </c>
@@ -27291,7 +27291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:65" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:65" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>326</v>
       </c>
@@ -27345,7 +27345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>326</v>
       </c>
@@ -27453,7 +27453,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="370" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>1374</v>
       </c>
@@ -27489,7 +27489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>1374</v>
       </c>
@@ -27519,7 +27519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>1374</v>
       </c>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>1374</v>
       </c>
@@ -27597,7 +27597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>1374</v>
       </c>
@@ -27613,7 +27613,7 @@
       </c>
       <c r="E374"/>
     </row>
-    <row r="375" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>1374</v>
       </c>
@@ -27655,7 +27655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>1374</v>
       </c>
@@ -27697,7 +27697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>1374</v>
       </c>
@@ -27739,7 +27739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>1374</v>
       </c>
@@ -27781,7 +27781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>1374</v>
       </c>
@@ -27823,7 +27823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>1374</v>
       </c>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>1374</v>
       </c>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>1374</v>
       </c>
@@ -27937,7 +27937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>1374</v>
       </c>
@@ -27973,7 +27973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>1374</v>
       </c>
@@ -27988,37 +27988,37 @@
         <v>1812</v>
       </c>
       <c r="E384" t="s">
-        <v>2195</v>
+        <v>2197</v>
       </c>
       <c r="F384" t="s">
+        <v>2164</v>
+      </c>
+      <c r="G384" t="s">
+        <v>2163</v>
+      </c>
+      <c r="H384" t="s">
         <v>2162</v>
       </c>
-      <c r="G384" t="s">
+      <c r="I384" t="s">
         <v>2161</v>
       </c>
-      <c r="H384" t="s">
+      <c r="J384" t="s">
         <v>2160</v>
       </c>
-      <c r="I384" t="s">
+      <c r="K384" t="s">
         <v>2159</v>
       </c>
-      <c r="J384" t="s">
+      <c r="L384" t="s">
         <v>2158</v>
       </c>
-      <c r="K384" t="s">
+      <c r="M384" t="s">
         <v>2157</v>
       </c>
-      <c r="L384" t="s">
+      <c r="N384" t="s">
         <v>2156</v>
       </c>
-      <c r="M384" t="s">
+      <c r="O384" t="s">
         <v>2155</v>
-      </c>
-      <c r="N384" t="s">
-        <v>2154</v>
-      </c>
-      <c r="O384" t="s">
-        <v>2153</v>
       </c>
       <c r="Z384">
         <v>1</v>
@@ -28051,37 +28051,37 @@
         <v>6</v>
       </c>
       <c r="AT384" t="s">
+        <v>2154</v>
+      </c>
+      <c r="AU384" t="s">
+        <v>2153</v>
+      </c>
+      <c r="AV384" t="s">
         <v>2152</v>
       </c>
-      <c r="AU384" t="s">
+      <c r="AW384" t="s">
         <v>2151</v>
       </c>
-      <c r="AV384" t="s">
+      <c r="AX384" t="s">
         <v>2150</v>
       </c>
-      <c r="AW384" t="s">
+      <c r="AY384" t="s">
         <v>2149</v>
       </c>
-      <c r="AX384" t="s">
+      <c r="AZ384" t="s">
         <v>2148</v>
       </c>
-      <c r="AY384" t="s">
+      <c r="BA384" t="s">
         <v>2147</v>
       </c>
-      <c r="AZ384" t="s">
+      <c r="BB384" t="s">
         <v>2146</v>
       </c>
-      <c r="BA384" t="s">
+      <c r="BC384" t="s">
         <v>2145</v>
       </c>
-      <c r="BB384" t="s">
-        <v>2144</v>
-      </c>
-      <c r="BC384" t="s">
-        <v>2143</v>
-      </c>
-    </row>
-    <row r="385" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="385" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>249</v>
       </c>
@@ -28129,7 +28129,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="386" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>249</v>
       </c>
@@ -28165,7 +28165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>249</v>
       </c>
@@ -28228,7 +28228,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="388" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>249</v>
       </c>
@@ -28276,7 +28276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>249</v>
       </c>
@@ -28330,7 +28330,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="390" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>249</v>
       </c>
@@ -28372,7 +28372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>249</v>
       </c>
@@ -28432,7 +28432,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="392" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>249</v>
       </c>
@@ -28492,7 +28492,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="393" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>249</v>
       </c>
@@ -28555,7 +28555,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="394" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>249</v>
       </c>
@@ -28603,7 +28603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>249</v>
       </c>
@@ -28657,7 +28657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>249</v>
       </c>
@@ -28729,7 +28729,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="397" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>249</v>
       </c>
@@ -28771,7 +28771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:55" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>249</v>
       </c>
@@ -29060,12 +29060,7 @@
       <c r="E458"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BC398">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Statistik"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:BC1">
     <sortState ref="A2:BC398">
       <sortCondition ref="A1:A398"/>
     </sortState>
